--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C68CA-1981-4FB9-BF09-8C286BF8A918}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA902C-C5F3-47B8-ABD8-C05EAB9ECBE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="テストケース" sheetId="3" r:id="rId1"/>
-    <sheet name="ユーザー登録" sheetId="5" r:id="rId2"/>
+    <sheet name="テストケース (旧)" sheetId="7" r:id="rId1"/>
+    <sheet name="テストケース(最新)" sheetId="3" r:id="rId2"/>
+    <sheet name="ログイン" sheetId="6" r:id="rId3"/>
+    <sheet name="ユーザー登録" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -56,10 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ベット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト区分</t>
     <rPh sb="3" eb="5">
       <t>クブン</t>
@@ -122,28 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー登録(基本コース)</t>
-    <rPh sb="7" eb="9">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本コース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代替コース</t>
-    <rPh sb="0" eb="2">
-      <t>ダイタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代替コース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー登録(ユーザー名必須チェック)</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -178,10 +154,6 @@
   </si>
   <si>
     <t>ユーザー登録(ユーザー名重複チェック)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代替コース</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -278,16 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキング表示(基本コース)</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ランキング表示(所持金が同額のユーザーが存在)</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
@@ -343,13 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン(基本コース)</t>
-    <rPh sb="5" eb="7">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン(ユーザー名必須チェック)</t>
     <rPh sb="9" eb="10">
       <t>メイ</t>
@@ -374,24 +329,6 @@
     <t>ログイン(ログインポップアップ表示)</t>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本コース</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベット(基本コース)</t>
-    <rPh sb="4" eb="6">
-      <t>キホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,14 +480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ベット額を指定すると、ポーカーの勝敗に応じて所持金が増減すること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ユーザー登録(基本コース)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)ログイン画面の「ユーザー登録はこちら」リンクをクリックして、ユーザー登録画面に遷移する。</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
@@ -641,6 +570,772 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系　</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカープレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョーカー込みでポーカー</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョーカー抜きでポーカー</t>
+    <rPh sb="5" eb="6">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカースタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカーをリトライする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ジョーカーを含まない」を選択して「START」ボタンをクリックすると、
+ジョーカーが山札・手札に含まれないこと</t>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ジョーカーを含む」を選択して「START」ボタンをクリックすると、
+ジョーカーが山札・手札に含まれること</t>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(5カード)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー込みロイヤルストレートフラッシュ)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー抜きロイヤルストレートフラッシュ)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー込みストレートフラッシュ)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー抜きストレートフラッシュ)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー込み4カード)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー抜き4カード)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー込みフルハウス)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー抜きフルハウス)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー込みフラッシュ)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー抜きフラッシュ)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー込みストレート)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー抜きストレート)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー込み3カード)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー抜き3カード)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(2ペア)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー込み1ペア)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ジョーカー抜き1ペア)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定(ハイカード)</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(負け)</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(勝ち)</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(引き分け)</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・所持金が変わらないこと</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・指定したベット額分、所持金が減ること</t>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ユーザー登録はこちらリンクをクリック)</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー登録はこちら」リンクをクリックすると、ユーザー登録画面へ遷移すること</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にFIVE_CARDと表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にROYEL_STRAIGHT_FLUSHと表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にROYEL_STRAIGHT_FLUSHと表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にHIGH_CARDと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にONE_PAIRと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にTWO_PAIRと表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にTHREE_CARDと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にTHREE_CARDと表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にSTRAIGHTと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にFLUSHと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にSTRAIGHTと表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にFULL_HOUSEと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にSTRAIGHT_FLUSHと表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にSTRAIGHT_FLUSHと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所にFOUR_CARDと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(基本コース)</t>
+    <rPh sb="7" eb="9">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本コース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替コース</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替コース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング表示(基本コース)</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(基本コース)</t>
+    <rPh sb="5" eb="7">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(基本コース)</t>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本コース</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベット額を指定すると、ポーカーの勝敗に応じて所持金が増減すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ユーザー登録はこちらリンクをクリック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ユーザー登録画面の入力フォームは未入力で表示されること
+・ユーザー情報を入力して、「登録」ボタンをクリックすると、ログイン画面に遷移すること
+・遷移したログイン画面の入力フォームは全て未入力なこと
+・入力した情報のユーザーが登録されていること
+</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ログイン画面の入力フォームは未入力で表示されること
+・ユーザー情報を入力して、「ログイン」ボタンをクリックすると、ポーカースタート画面に遷移すること
+</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベット額入力フォームは未入力で表示されること
+・指定したベット額分、所持金が増えること</t>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「もう一度」ボタンをクリックすると、ポーカープレイ画面のベットフェイズに遷移すること
+・遷移先にあるベット額入力フォームは未入力で表示されること</t>
+    <rPh sb="4" eb="6">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「スタートに戻る」ボタンをクリックするとポーカースタート画面に遷移すること
+・STARTボタン上部のプルダウンに「ジョーカーを含める」が表示されていること</t>
+    <rPh sb="48" eb="50">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)「http://localhost:8080/」へアクセスして、ログイン画面を表示する。</t>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -649,7 +1344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +1359,11 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -680,7 +1380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -732,13 +1432,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,11 +1499,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -796,15 +1529,206 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>441960</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>99060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790CF3A0-4FCF-4B40-A6AF-18334F8D571D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI"/>
+                  <a:ea typeface="Meiryo UI"/>
+                </a:rPr>
+                <a:t>ポーカースタート画面に遷移すること</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6172D022-6572-45D8-AB43-2874F2BBE2BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI"/>
+                  <a:ea typeface="Meiryo UI"/>
+                </a:rPr>
+                <a:t>ユーザー名・パスワードの入力フォームは未入力で表示されること</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B9000-2A3C-4A7F-816D-5325D94F15E8}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="5">
+    <tableColumn id="7" xr3:uid="{B043A648-9C7E-4146-A595-A3D206E16372}" name="テストケース名"/>
+    <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
+    <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
+    <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
+    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E49" totalsRowShown="0">
+  <autoFilter ref="A1:E49" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
     <tableColumn id="7" xr3:uid="{AB66498C-63AE-4383-81CE-DB27D05AB83D}" name="テストケース名"/>
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1106,10 +2030,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D03D6C-552E-49CA-8487-061E7F734CDC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1123,13 +2047,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1140,331 +2064,331 @@
     </row>
     <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1479,11 +2403,1161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="57.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="91.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="85.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5FF0CC-9B19-41E6-9847-F3AE80571D60}">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="G16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.45">
+      <c r="G30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="T30" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>441960</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>99060</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>83820</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8161A043-26CB-46AE-8D85-32404A9890E8}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1534,7 +3608,7 @@
     </row>
     <row r="2" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1574,7 +3648,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AF4" s="5"/>
     </row>
@@ -1583,10 +3657,10 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AF6" s="5"/>
     </row>
@@ -1595,28 +3669,28 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AF8" s="5"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AF9" s="5"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AF10" s="5"/>
     </row>
@@ -1625,10 +3699,10 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AF12" s="5"/>
     </row>
@@ -1637,19 +3711,19 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AF14" s="5"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AF15" s="5"/>
     </row>

--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA902C-C5F3-47B8-ABD8-C05EAB9ECBE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96387E5D-1A14-46EB-A4DF-14565F10333C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="テストケース (旧)" sheetId="7" r:id="rId1"/>
-    <sheet name="テストケース(最新)" sheetId="3" r:id="rId2"/>
+    <sheet name="テストケース(2月20日時点)" sheetId="3" r:id="rId1"/>
+    <sheet name="事前準備" sheetId="13" r:id="rId2"/>
     <sheet name="ログイン" sheetId="6" r:id="rId3"/>
     <sheet name="ユーザー登録" sheetId="5" r:id="rId4"/>
+    <sheet name="ランキング表示" sheetId="10" r:id="rId5"/>
+    <sheet name="ポーカースタート" sheetId="11" r:id="rId6"/>
+    <sheet name="ポーカープレイ" sheetId="12" r:id="rId7"/>
+    <sheet name="BK" sheetId="8" r:id="rId8"/>
+    <sheet name="テストケース (2月18日時点)" sheetId="7" r:id="rId9"/>
+    <sheet name="テストケース(2月19日時点) " sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="173">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1177,10 +1183,6 @@
   </si>
   <si>
     <t>・ベット額を指定すると、ポーカーの勝敗に応じて所持金が増減すること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン(ユーザー登録はこちらリンクをクリック)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1339,12 +1341,399 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーカースタート画面に遷移すること</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認観点</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果記入</t>
+  </si>
+  <si>
+    <t>・ユーザー名・パスワードの入力フォームは未入力で表示されること</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)「http://localhost:8080/」へアクセスして、ログイン画面を表示する。</t>
+  </si>
+  <si>
+    <t>(2)「ユーザー登録はこちら」リンクをクリックする。</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー登録画面に遷移すること</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージ「ユーザー名が未入力です。」が表示されること</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージ「パスワードが未入力です。」が表示されること</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※手順について確認する。</t>
+    <rPh sb="1" eb="3">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース名2</t>
+    <rPh sb="0" eb="8">
+      <t>メイ2</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケースNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所に手札に応じたと表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベット額入力フォームは未入力で表示されること
+・勝敗に応じて、指定したベット額分、所持金が増減すること(引き分けの場合は変動なし)</t>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ログイン(ユーザー登録はこちらリンクをクリック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ログイン(ログインポップアップ表示)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.ログイン(ユーザー名必須チェック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.ログイン(パスワード必須チェック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.ログイン(ログインエラーチェック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージ「ログイン失敗」が表示されること</t>
+    <rPh sb="14" eb="16">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順(1～6まで)</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)以下の情報を入力、「ログイン」ボタンをクリックして、</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ポーカースタート画面へ遷移する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   「START」ボタンをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)プルダウンの表示が「ジョーカーを含む」となっている状態で、</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ユーザー登録できてる確認は相談する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「START」ボタン上部にあるプルダウンの表示が「ジョーカーを含む」になっていること</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)以下の情報を入力して、「ベット」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>(5)chromeのDeveloper Toolを起動して、「React」タブをクリックする。</t>
+    <rPh sb="25" eb="27">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)山札・CPUの手札・プレイヤーの手札を確認する。</t>
+    <rPh sb="3" eb="4">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジョーカーが存在すること</t>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット額</t>
+    <rPh sb="3" eb="4">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ベット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ジョーカー込みでポーカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)「手札交換」ボタンをクリックする(交換する手札は任意)。</t>
+    <rPh sb="4" eb="6">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)「勝負する」ボタンをクリックする。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勝敗に応じて、所持金が増減していること</t>
+    <rPh sb="1" eb="3">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,12 +1750,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1376,6 +1786,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,12 +1873,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1505,11 +1924,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1529,184 +1973,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{A6EEB1B8-DC99-4FF2-BCF4-83403CF3CA3F}" name="テストケースNo"/>
+    <tableColumn id="7" xr3:uid="{AB66498C-63AE-4383-81CE-DB27D05AB83D}" name="テストケース名2"/>
+    <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
+    <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
+    <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
+    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790CF3A0-4FCF-4B40-A6AF-18334F8D571D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI"/>
-                  <a:ea typeface="Meiryo UI"/>
-                </a:rPr>
-                <a:t>ポーカースタート画面に遷移すること</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6172D022-6572-45D8-AB43-2874F2BBE2BB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI"/>
-                  <a:ea typeface="Meiryo UI"/>
-                </a:rPr>
-                <a:t>ユーザー名・パスワードの入力フォームは未入力で表示されること</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B9000-2A3C-4A7F-816D-5325D94F15E8}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
@@ -1714,21 +1996,21 @@
     <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:E49" totalsRowShown="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4934993D-3DF2-4349-9239-8C0C66A8D38B}" name="テーブル14" displayName="テーブル14" ref="A1:E49" totalsRowShown="0">
   <autoFilter ref="A1:E49" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
-    <tableColumn id="7" xr3:uid="{AB66498C-63AE-4383-81CE-DB27D05AB83D}" name="テストケース名"/>
-    <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
-    <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
-    <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{AD2D58B9-5D95-4845-92EA-117B53772E0D}" name="テストケース名"/>
+    <tableColumn id="5" xr3:uid="{9E8931CC-0A54-4D2C-8FA0-B16B6B3A0D20}" name="確認対象画面"/>
+    <tableColumn id="1" xr3:uid="{86099CD3-ABA6-4095-A870-3C9F2803678A}" name="テスト区分"/>
+    <tableColumn id="2" xr3:uid="{20ADE435-D5A4-479E-8CCB-C0B38AB6E7B0}" name="確認内容"/>
+    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2030,370 +2312,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D03D6C-552E-49CA-8487-061E7F734CDC}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="87.09765625" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.796875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="81.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>113</v>
+    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" location="ログイン!A2" display="ログイン!A2" xr:uid="{F72D7484-B3BB-47AE-9AB7-C31C557DE47D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2402,11 +2863,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C0753-5C9D-4015-A97A-D60AF3C940FF}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2446,7 +2907,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2536,7 +2997,7 @@
         <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2575,7 +3036,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -2590,7 +3051,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -2635,7 +3096,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -2731,7 +3192,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -2851,7 +3312,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -2866,7 +3327,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -3165,12 +3626,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5FF0CC-9B19-41E6-9847-F3AE80571D60}">
-  <dimension ref="A1:T30"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E72D1D-BCB3-448C-A259-CA61D62F9459}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5FF0CC-9B19-41E6-9847-F3AE80571D60}">
+  <dimension ref="A1:Q81"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3180,38 +3656,40 @@
     <col min="5" max="5" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="9"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="10"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P1" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3220,20 +3698,16 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -3242,22 +3716,20 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -3266,20 +3738,16 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -3288,267 +3756,545 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B8" s="4" t="s">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G23" s="5"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G25" s="5"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G26" s="5"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G27" s="5"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G29" s="5"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.45">
-      <c r="G30" s="5"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="T30" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="P29" s="17"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="P32" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="P39" s="17"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="P42" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F46" s="5"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F48" s="5"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="P49" s="17"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F50" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="K51" s="6"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="K52" s="6"/>
+      <c r="P52" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F53" s="5"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F81" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4 P7 P17 P29 P39 P49" xr:uid="{A6D2B6C5-340D-4F3F-A2AC-5960E35A8B47}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>381000</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>441960</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>381000</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>83820</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -3557,7 +4303,7 @@
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3650,6 +4396,9 @@
       <c r="A4" t="s">
         <v>49</v>
       </c>
+      <c r="M4" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="AF4" s="5"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.45">
@@ -3700,6 +4449,9 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
       </c>
       <c r="N12" t="s">
         <v>58</v>
@@ -3843,4 +4595,991 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD9F349-E98B-4D27-B152-73A9DCCD1D29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F8A19-DD5E-445B-BE63-15711740AE4D}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="15"/>
+      <c r="K13" s="6"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P21" xr:uid="{769C72F2-F98F-44D8-A341-46D0B982FE52}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FC7F8-A2F8-4999-959E-C9057BBFAD1D}">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="15"/>
+      <c r="K13" s="6"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P23" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7707446A-4140-4DD1-87CB-B4B71D61C8D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D03D6C-552E-49CA-8487-061E7F734CDC}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="41.19921875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="87.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96387E5D-1A14-46EB-A4DF-14565F10333C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5941115-3F5C-40BF-B7D3-0A3F7924D4E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="972" yWindow="864" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="テストケース(2月20日時点)" sheetId="3" r:id="rId1"/>
+    <sheet name="テストケース(2月21日時点) " sheetId="14" r:id="rId1"/>
     <sheet name="事前準備" sheetId="13" r:id="rId2"/>
-    <sheet name="ログイン" sheetId="6" r:id="rId3"/>
-    <sheet name="ユーザー登録" sheetId="5" r:id="rId4"/>
-    <sheet name="ランキング表示" sheetId="10" r:id="rId5"/>
+    <sheet name="ランキング表示" sheetId="10" r:id="rId3"/>
+    <sheet name="ログイン" sheetId="6" r:id="rId4"/>
+    <sheet name="ユーザー登録" sheetId="5" r:id="rId5"/>
     <sheet name="ポーカースタート" sheetId="11" r:id="rId6"/>
     <sheet name="ポーカープレイ" sheetId="12" r:id="rId7"/>
     <sheet name="BK" sheetId="8" r:id="rId8"/>
-    <sheet name="テストケース (2月18日時点)" sheetId="7" r:id="rId9"/>
+    <sheet name="テストケース(2月20日時点)" sheetId="3" r:id="rId9"/>
     <sheet name="テストケース(2月19日時点) " sheetId="9" r:id="rId10"/>
+    <sheet name="テストケース (2月18日時点)" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="276">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1433,16 +1434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※手順について確認する。</t>
-    <rPh sb="1" eb="3">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストケース名2</t>
     <rPh sb="0" eb="8">
       <t>メイ2</t>
@@ -1527,30 +1518,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.ログイン(ユーザー登録はこちらリンクをクリック)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.ログイン(ログインポップアップ表示)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.ログイン(ユーザー名必須チェック)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.ログイン(パスワード必須チェック)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.ログイン(ログインエラーチェック)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1569,13 +1536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>手順(1～6まで)</t>
-    <rPh sb="0" eb="2">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(2)以下の情報を入力、「ログイン」ボタンをクリックして、</t>
     <rPh sb="3" eb="5">
       <t>イカ</t>
@@ -1610,19 +1570,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ユーザー登録できてる確認は相談する</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・「START」ボタン上部にあるプルダウンの表示が「ジョーカーを含む」になっていること</t>
     <rPh sb="11" eb="13">
       <t>ジョウブ</t>
@@ -1679,14 +1626,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ベット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ジョーカー込みでポーカー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(5)「手札交換」ボタンをクリックする(交換する手札は任意)。</t>
     <rPh sb="4" eb="6">
       <t>テフダ</t>
@@ -1726,6 +1665,744 @@
     <rPh sb="12" eb="14">
       <t>ゾウゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ランキング表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング表示(所持金が同額のユーザーが存在)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング表示用データの準備</t>
+    <rPh sb="5" eb="8">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)「http://localhost:8080/h2-console/」へアクセスして、H2コンソールを表示する</t>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JDBC URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jdbc:h2:~/poker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)以下の情報を入力して、「Connect」ボタンをクリックする。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Driver Class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saved Settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Setting Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Generic H2 (Embedded)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.h2.Driver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)以下のSQLを実行する。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM POKER_USER_INFO; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM POSSESSION_MONEY; </t>
+  </si>
+  <si>
+    <t>DELETE FROM POKER_USER_INFO;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT * FROM POSSESSION_MONEY;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test1', 'aaa', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test2', 'bbb', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test3', 'ccc', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test4', 'ddd', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test5', 'eee', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)以下のSQLを実行する。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)以下のSQLを実行して、結果が0件になることを確認する。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)以下のSQLを実行する。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT * FROM POKER_USER_INFO;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)以下のSQLを実行してUSER_IDをみて、(6)のUSER_IDの部分を調べたUSER_IDに置き換える。</t>
+  </si>
+  <si>
+    <t>(7)以下のSQLを実行して、想定通りのデータが入っていることをする。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)「ランキングを表示する」ボタンをクリックする。</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)「閉じる」ボタンをクリックして、ランキングポップアップを閉じる</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2) H2コンソールより、以下のSQLを実行する</t>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※事前準備前に、DBFluteタスクのreplace-schemaを実施してください</t>
+    <rPh sb="1" eb="3">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POSSESSION_MONEY values(1, 100000, now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POSSESSION_MONEY values(2, 10000, now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POSSESSION_MONEY values(3, 1000, now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POSSESSION_MONEY values(4, 100, now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POSSESSION_MONEY values(5, 10, now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE POSSESSION_MONEY  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SET POSSESSION_MONEY = 100, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE=now()  WHERE USER_ID=5;</t>
+  </si>
+  <si>
+    <t>(3)「ランキングを表示する」ボタンをクリックする。</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・以下の順位で表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1位:  test1</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2位:  test2</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3位:  test3</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4位:  test4</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5位:  test5</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4位:  test5</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5位:  test4</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)以下のSQLを実行する。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POSSESSION_MONEY values(6, 10, now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインポップアップ表示用データの準備</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)以下の情報を入力して、「登録」ボタンをクリックする。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO values(POKER_USER_ID_SEQ1.nextval, 'older_user', 'aaaa', '2018-02-17 18:01:40.64');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>older_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインポップアップが表示されること</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名・パスワード・パスワード(確認)の入力フォームは未入力で表示されること</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)「キャンセル」ボタンをクリックする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(ユーザー名必須チェック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(パスワード(確認)必須チェック)</t>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(パスワード文字数チェック)</t>
+  </si>
+  <si>
+    <t>ジョーカー込みでポーカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジョーカーが存在しないこと</t>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)プルダウンの表示が「ジョーカーを含まない」となっている状態で、</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(パスワード一致チェック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー名が未入力です。」というエラーメッセージが表示されること</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録(ユーザー名文字数チェック)</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「パスワードが未入力です。」というエラーメッセージが表示されること</t>
+    <rPh sb="8" eb="11">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「パスワード(確認)が未入力です。」というエラーメッセージが表示されること</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>255文字を超えるように入力!</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー名が255文字を超えています。」というエラーメッセージが表示されること</t>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「パスワードが255文字を超えています。」というエラーメッセージが表示されること</t>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「パスワードとパスワード(確認)が一致していません。」というエラーメッセージが表示されること</t>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー名が重複しています。」というエラーメッセージが表示されること</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(ベット額が未入力)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベット(ベット額が0円)</t>
+  </si>
+  <si>
+    <t>ベット(ベット額が0円)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートに戻る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)「勝負しない」ボタンをクリックする。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・所持金が変わらないこと</t>
+    <rPh sb="1" eb="4">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ベット額が未入力です。」というエラーメッセージが表示されること</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ベット額が0円です。」というエラーメッセージが表示されること</t>
+    <rPh sb="8" eb="9">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ベット額が所持金を超えています。」というエラーメッセージが表示されること</t>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーカープレイ画面のベットフェイズが表示されること</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベット額入力項目は未入力なこと</t>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7)「もう一度」ボタンをクリックする。</t>
+    <rPh sb="6" eb="8">
+      <t>イチド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7)「スタートに戻る」ボタンをクリックする。</t>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所に手札に応じたと表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージ「ユーザー名が未入力です。」が表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージ「パスワードが未入力です。」が表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・エラーメッセージ「ログイン失敗」が表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(パスワード必須チェック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ユーザー名必須チェック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ログインポップアップ表示)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン(ユーザー登録はこちらリンクをクリック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・遷移したログイン画面の入力フォームは全て未入力なこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー名が未入力です。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「パスワードが未入力です。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「パスワード(確認)が未入力です。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー名が255文字を超えています。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「パスワードが255文字を超えています。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「パスワードとパスワード(確認)が一致していません。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ユーザー名が重複しています。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ベット額が未入力です。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ベット額が0円です。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ベット額が所持金を超えています。」というエラーメッセージが表示されること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1733,7 +2410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1775,6 +2452,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1796,7 +2481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1872,6 +2557,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1881,7 +2577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1945,12 +2641,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1974,6 +2685,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3165C65-DB51-4B44-8A9F-D2C29901F688}" name="テーブル15" displayName="テーブル15" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{B4A28EE1-27FC-4187-874E-AFDE3E00D5E3}" name="テストケースNo"/>
+    <tableColumn id="7" xr3:uid="{278AFFF1-30B3-4954-AD1A-4578A72DF5C0}" name="テストケース名2"/>
+    <tableColumn id="5" xr3:uid="{8414F0A5-E529-491E-AEF7-299BFB25516A}" name="確認対象画面"/>
+    <tableColumn id="1" xr3:uid="{82FEEB34-B925-4C80-A0C6-2B1DD03F4298}" name="テスト区分"/>
+    <tableColumn id="2" xr3:uid="{3923F39F-B1F8-4854-A9FB-632D6C466920}" name="確認内容"/>
+    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:F29" totalsRowShown="0">
   <autoFilter ref="A1:F29" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="6">
@@ -1982,21 +2708,7 @@
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B9000-2A3C-4A7F-816D-5325D94F15E8}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
-  <autoFilter ref="A1:E23" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
-  <tableColumns count="5">
-    <tableColumn id="7" xr3:uid="{B043A648-9C7E-4146-A595-A3D206E16372}" name="テストケース名"/>
-    <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
-    <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
-    <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2010,7 +2722,21 @@
     <tableColumn id="5" xr3:uid="{9E8931CC-0A54-4D2C-8FA0-B16B6B3A0D20}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{86099CD3-ABA6-4095-A870-3C9F2803678A}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{20ADE435-D5A4-479E-8CCB-C0B38AB6E7B0}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B9000-2A3C-4A7F-816D-5325D94F15E8}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
+  <autoFilter ref="A1:E23" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="5">
+    <tableColumn id="7" xr3:uid="{B043A648-9C7E-4146-A595-A3D206E16372}" name="テストケース名"/>
+    <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
+    <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
+    <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
+    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2312,8 +3038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B22256-5498-4ADB-AF44-AFE5118263D1}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2328,10 +3054,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -2347,20 +3073,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2369,25 +3095,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -2395,8 +3121,8 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
+      <c r="E4" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -2405,16 +3131,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2423,16 +3149,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -2441,7 +3167,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -2450,7 +3176,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -2459,52 +3185,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -2513,16 +3239,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -2531,16 +3257,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -2549,16 +3275,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -2567,7 +3293,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2576,7 +3302,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -2585,16 +3311,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -2603,7 +3329,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2612,47 +3338,47 @@
         <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2688,7 +3414,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2702,11 +3428,11 @@
         <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2726,46 +3452,46 @@
     </row>
     <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -2774,34 +3500,34 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -2810,16 +3536,16 @@
         <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -2827,34 +3553,13 @@
       <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>127</v>
+      <c r="E28" t="s">
+        <v>144</v>
       </c>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A2" location="ログイン!A2" display="ログイン!A2" xr:uid="{F72D7484-B3BB-47AE-9AB7-C31C557DE47D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -3626,39 +4331,819 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E72D1D-BCB3-448C-A259-CA61D62F9459}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D03D6C-552E-49CA-8487-061E7F734CDC}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.19921875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="87.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E72D1D-BCB3-448C-A259-CA61D62F9459}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="5" width="21.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B56" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="7"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5FF0CC-9B19-41E6-9847-F3AE80571D60}">
-  <dimension ref="A1:Q81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD9F349-E98B-4D27-B152-73A9DCCD1D29}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3682,7 +5167,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3727,9 +5212,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="G4" s="18"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -3738,7 +5221,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="17"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
@@ -3778,17 +5261,20 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="15" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="K7" s="6"/>
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F8" s="5"/>
+      <c r="H8" t="s">
+        <v>207</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="P8" s="5"/>
     </row>
@@ -3800,6 +5286,9 @@
         <v>54</v>
       </c>
       <c r="F9" s="5"/>
+      <c r="H9" t="s">
+        <v>208</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="P9" s="5"/>
     </row>
@@ -3811,11 +5300,17 @@
         <v>55</v>
       </c>
       <c r="F10" s="5"/>
+      <c r="H10" t="s">
+        <v>209</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F11" s="5"/>
+      <c r="H11" t="s">
+        <v>210</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="P11" s="5"/>
     </row>
@@ -3827,7 +5322,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3839,7 +5336,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -3858,50 +5355,404 @@
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F14" s="5"/>
-      <c r="K14" s="6"/>
+      <c r="F14" s="24"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="K15" s="6"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F16" s="5"/>
-      <c r="K16" s="6"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="P17" s="17"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F18" s="5"/>
-      <c r="K18" s="6"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F24" s="5"/>
+      <c r="H24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F25" s="5"/>
+      <c r="H25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F26" s="5"/>
+      <c r="H26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F27" s="5"/>
+      <c r="H27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P23" xr:uid="{B625D952-08CB-45A2-B9F1-4B679634441A}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5FF0CC-9B19-41E6-9847-F3AE80571D60}">
+  <dimension ref="A1:S83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -3909,387 +5760,422 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F23" s="5"/>
-      <c r="K23" s="6"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H25" s="5"/>
+      <c r="M25" s="6"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H26" s="5"/>
+      <c r="M26" s="6"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="K27" s="6"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="H29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H30" s="5"/>
+      <c r="M30" s="6"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="15" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="P29" s="17"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F30" s="5"/>
-      <c r="K30" s="6"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="4" t="s">
+      <c r="M31" s="6"/>
+      <c r="R31" s="17"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H32" s="5"/>
+      <c r="M32" s="6"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="K31" s="6"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
+      <c r="C33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="K32" s="6"/>
-      <c r="P32" s="5" t="s">
+      <c r="H34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="R34" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A35" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="13"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F36" s="5"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H35" s="5"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H36" s="5"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F38" s="5"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="H39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="15" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="P39" s="17"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B41" s="4" t="s">
+      <c r="M41" s="6"/>
+      <c r="R41" s="17"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H42" s="5"/>
+      <c r="M42" s="6"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="K41" s="6"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B42" s="4" t="s">
+      <c r="H43" s="5"/>
+      <c r="M43" s="6"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="F42" s="5"/>
-      <c r="K42" s="6"/>
-      <c r="P42" s="5" t="s">
+      <c r="C44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="M44" s="6"/>
+      <c r="R44" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F44" s="5"/>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A45" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="13"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F46" s="5"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H48" s="5"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F48" s="5"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="H49" s="5"/>
+      <c r="M49" s="6"/>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H50" s="5"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="P49" s="17"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F50" s="5"/>
-      <c r="K50" s="6"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B51" s="4" t="s">
+      <c r="H51" s="5"/>
+      <c r="I51" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="R51" s="17"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H52" s="5"/>
+      <c r="M52" s="6"/>
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="K51" s="6"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
+      <c r="C53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="M53" s="6"/>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="K52" s="6"/>
-      <c r="P52" s="5" t="s">
+      <c r="C54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="M54" s="6"/>
+      <c r="R54" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F53" s="5"/>
-      <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="7"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F81" s="6"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H55" s="5"/>
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="7"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H83" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4 P7 P17 P29 P39 P49" xr:uid="{A6D2B6C5-340D-4F3F-A2AC-5960E35A8B47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4 R7 R17 R31 R41 R51 R21" xr:uid="{A6D2B6C5-340D-4F3F-A2AC-5960E35A8B47}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4298,45 +6184,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8161A043-26CB-46AE-8D85-32404A9890E8}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AF131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" customWidth="1"/>
     <col min="4" max="11" width="5.69921875" customWidth="1"/>
     <col min="12" max="12" width="5.69921875" style="5" customWidth="1"/>
     <col min="13" max="16" width="5.69921875" customWidth="1"/>
     <col min="17" max="18" width="5.69921875" style="6" customWidth="1"/>
-    <col min="19" max="35" width="5.69921875" customWidth="1"/>
+    <col min="19" max="25" width="5.69921875" customWidth="1"/>
+    <col min="26" max="26" width="8.796875" customWidth="1"/>
+    <col min="27" max="35" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9"/>
+      <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="16"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
@@ -4344,7 +6234,9 @@
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="Z1" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
@@ -4397,8 +6289,9 @@
         <v>49</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Z4" s="17"/>
       <c r="AF4" s="5"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.45">
@@ -4408,12 +6301,17 @@
       <c r="A6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="18" t="s">
         <v>56</v>
       </c>
+      <c r="Z6" s="17"/>
       <c r="AF6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="M7" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z7" s="17"/>
       <c r="AF7" s="5"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.45">
@@ -4450,12 +6348,10 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s">
-        <v>161</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M12" s="18" t="s">
         <v>58</v>
       </c>
+      <c r="Z12" s="17"/>
       <c r="AF12" s="5"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.45">
@@ -4513,110 +6409,1046 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="7"/>
     </row>
-    <row r="17" spans="32:32" x14ac:dyDescent="0.45">
-      <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="7"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z21" s="17"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="32:32" x14ac:dyDescent="0.45">
-      <c r="AF23" s="5"/>
-    </row>
-    <row r="24" spans="32:32" x14ac:dyDescent="0.45">
-      <c r="AF24" s="5"/>
-    </row>
-    <row r="25" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="7"/>
+    </row>
+    <row r="24" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="7"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z28" s="17"/>
       <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF29" s="5"/>
     </row>
-    <row r="30" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="AF30" s="5"/>
     </row>
-    <row r="31" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="AF31" s="5"/>
     </row>
-    <row r="32" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="AF32" s="5"/>
     </row>
-    <row r="33" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF33" s="5"/>
     </row>
-    <row r="34" spans="32:32" x14ac:dyDescent="0.45">
-      <c r="AF34" s="5"/>
-    </row>
-    <row r="35" spans="32:32" x14ac:dyDescent="0.45">
-      <c r="AF35" s="5"/>
-    </row>
-    <row r="36" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="7"/>
+    </row>
+    <row r="35" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="7"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF36" s="5"/>
     </row>
-    <row r="37" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
       <c r="AF37" s="5"/>
     </row>
-    <row r="38" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF38" s="5"/>
     </row>
-    <row r="39" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z39" s="17"/>
       <c r="AF39" s="5"/>
     </row>
-    <row r="40" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.45">
       <c r="AF40" s="5"/>
     </row>
-    <row r="41" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="AF41" s="5"/>
     </row>
-    <row r="42" spans="32:32" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="4"/>
       <c r="AF42" s="5"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF43" s="5"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="7"/>
+    </row>
+    <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="7"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF47" s="5"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF48" s="5"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z50" s="17"/>
+      <c r="AF50" s="5"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF51" s="5"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF52" s="5"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF53" s="5"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="AF54" s="5"/>
+    </row>
+    <row r="55" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55" s="5"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55" s="5"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="7"/>
+    </row>
+    <row r="57" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="7"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF58" s="24"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF59" s="5"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF60" s="5"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z61" s="17"/>
+      <c r="AF61" s="5"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF62" s="5"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF63" s="5"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF64" s="5"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF65" s="5"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF66" s="5"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="7"/>
+    </row>
+    <row r="68" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="7"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF69" s="24"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF70" s="5"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF71" s="5"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z72" s="17"/>
+      <c r="AF72" s="5"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF73" s="5"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF74" s="5"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF75" s="5"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF76" s="5"/>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF77" s="5"/>
+    </row>
+    <row r="78" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12"/>
+      <c r="AF78" s="13"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF79" s="5"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF80" s="5"/>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF81" s="5"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="M82" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB82" s="17"/>
+      <c r="AF82" s="5"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF83" s="5"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B84" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF84" s="5"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF85" s="5"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B86" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF86" s="5"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF87" s="5"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF88" s="5"/>
+    </row>
+    <row r="89" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12"/>
+      <c r="AC89" s="12"/>
+      <c r="AD89" s="12"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="13"/>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF90" s="5"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF91" s="5"/>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF92" s="5"/>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="M93" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z93" s="17"/>
+      <c r="AF93" s="5"/>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF94" s="5"/>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B95" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF95" s="5"/>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B96" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF96" s="5"/>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B97" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF97" s="5"/>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="AF98" s="5"/>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3"/>
+      <c r="AF99" s="7"/>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L131" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD9F349-E98B-4D27-B152-73A9DCCD1D29}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4 Z6:Z7 Z12 Z21 Z28 Z39 Z50 Z61 Z72 AB82 Z93" xr:uid="{70CF1B55-AA0A-49EC-9B77-C2134DFBB13F}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F8A19-DD5E-445B-BE63-15711740AE4D}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4650,7 +7482,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4744,18 +7576,18 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="15" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K7" s="6"/>
       <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F8" s="5"/>
       <c r="K8" s="6"/>
@@ -4795,7 +7627,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="15"/>
@@ -4804,7 +7636,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F14" s="5"/>
       <c r="K14" s="6"/>
@@ -4817,7 +7649,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F16" s="5"/>
       <c r="K16" s="6"/>
@@ -4829,33 +7661,35 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>164</v>
+      <c r="B18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
       </c>
       <c r="F18" s="5"/>
       <c r="K18" s="6"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="F19" s="5"/>
       <c r="K19" s="6"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="K20" s="6"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>165</v>
-      </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="15" t="s">
-        <v>166</v>
-      </c>
       <c r="K21" s="6"/>
-      <c r="P21" s="17"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F22" s="5"/>
@@ -4863,32 +7697,289 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
       <c r="F23" s="5"/>
+      <c r="G23" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="K23" s="6"/>
-      <c r="P23" s="5"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="20"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="15"/>
+      <c r="K31" s="6"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="15"/>
+      <c r="K37" s="6"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="4">
+        <v>100</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="P47" s="17"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P21" xr:uid="{769C72F2-F98F-44D8-A341-46D0B982FE52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P23 P47" xr:uid="{769C72F2-F98F-44D8-A341-46D0B982FE52}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4898,11 +7989,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FC7F8-A2F8-4999-959E-C9057BBFAD1D}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4936,7 +8025,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5030,18 +8119,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="15" t="s">
-        <v>162</v>
-      </c>
+      <c r="G7" s="15"/>
       <c r="K7" s="6"/>
-      <c r="P7" s="17"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F8" s="5"/>
       <c r="K8" s="6"/>
@@ -5081,20 +8168,25 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>253</v>
+      </c>
       <c r="K13" s="6"/>
-      <c r="P13" s="20"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F14" s="5"/>
+      <c r="G14" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="K14" s="6"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F15" s="5"/>
@@ -5103,7 +8195,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F16" s="5"/>
       <c r="K16" s="6"/>
@@ -5116,7 +8208,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C18" s="4">
         <v>100</v>
@@ -5132,7 +8224,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F20" s="5"/>
       <c r="K20" s="6"/>
@@ -5150,11 +8242,11 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K23" s="6"/>
       <c r="P23" s="17"/>
@@ -5187,10 +8279,1674 @@
       <c r="O26" s="3"/>
       <c r="P26" s="7"/>
     </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="15"/>
+      <c r="K32" s="6"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="15"/>
+      <c r="K38" s="6"/>
+      <c r="P38" s="20"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="4">
+        <v>100</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="P48" s="17"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F49" s="5"/>
+      <c r="K49" s="6"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F50" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="7"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="20"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="20"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="20"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="15"/>
+      <c r="K57" s="6"/>
+      <c r="P57" s="5"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="K58" s="6"/>
+      <c r="P58" s="5"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F59" s="5"/>
+      <c r="K59" s="6"/>
+      <c r="P59" s="5"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="K60" s="6"/>
+      <c r="P60" s="5"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="K61" s="6"/>
+      <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F62" s="5"/>
+      <c r="K62" s="6"/>
+      <c r="P62" s="5"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="15"/>
+      <c r="K63" s="6"/>
+      <c r="P63" s="20"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="K64" s="6"/>
+      <c r="P64" s="5"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F65" s="5"/>
+      <c r="K65" s="6"/>
+      <c r="P65" s="5"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="P66" s="17"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F67" s="5"/>
+      <c r="K67" s="6"/>
+      <c r="P67" s="5"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="F68" s="5"/>
+      <c r="K68" s="6"/>
+      <c r="P68" s="5"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F69" s="5"/>
+      <c r="K69" s="6"/>
+      <c r="P69" s="5"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="5"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="20"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="20"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="20"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="15"/>
+      <c r="K76" s="6"/>
+      <c r="P76" s="5"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="K77" s="6"/>
+      <c r="P77" s="5"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F78" s="5"/>
+      <c r="K78" s="6"/>
+      <c r="P78" s="5"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="K79" s="6"/>
+      <c r="P79" s="5"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="K80" s="6"/>
+      <c r="P80" s="5"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F81" s="5"/>
+      <c r="K81" s="6"/>
+      <c r="P81" s="5"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="15"/>
+      <c r="K82" s="6"/>
+      <c r="P82" s="20"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="K83" s="6"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F84" s="5"/>
+      <c r="K84" s="6"/>
+      <c r="P84" s="5"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K85" s="6"/>
+      <c r="P85" s="17"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F86" s="5"/>
+      <c r="K86" s="6"/>
+      <c r="P86" s="5"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B87" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="K87" s="6"/>
+      <c r="P87" s="5"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F88" s="5"/>
+      <c r="K88" s="6"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="7"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="5"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="20"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="20"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="20"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="15"/>
+      <c r="K95" s="6"/>
+      <c r="P95" s="5"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="K96" s="6"/>
+      <c r="P96" s="5"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F97" s="5"/>
+      <c r="K97" s="6"/>
+      <c r="P97" s="5"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B98" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="K98" s="6"/>
+      <c r="P98" s="5"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B99" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="K99" s="6"/>
+      <c r="P99" s="5"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F100" s="5"/>
+      <c r="K100" s="6"/>
+      <c r="P100" s="5"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="15"/>
+      <c r="K101" s="6"/>
+      <c r="P101" s="20"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>151</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="K102" s="6"/>
+      <c r="P102" s="5"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F103" s="5"/>
+      <c r="K103" s="6"/>
+      <c r="P103" s="5"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>154</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="K104" s="6"/>
+      <c r="P104" s="17"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F105" s="5"/>
+      <c r="K105" s="6"/>
+      <c r="P105" s="5"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B106" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="4">
+        <v>100000</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="K106" s="6"/>
+      <c r="P106" s="5"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F107" s="5"/>
+      <c r="K107" s="6"/>
+      <c r="P107" s="5"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="7"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="7"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="5"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="20"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="20"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="20"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="15"/>
+      <c r="K114" s="6"/>
+      <c r="P114" s="5"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>150</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="K115" s="6"/>
+      <c r="P115" s="5"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F116" s="5"/>
+      <c r="K116" s="6"/>
+      <c r="P116" s="5"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B117" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="K117" s="6"/>
+      <c r="P117" s="5"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B118" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="K118" s="6"/>
+      <c r="P118" s="5"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F119" s="5"/>
+      <c r="K119" s="6"/>
+      <c r="P119" s="5"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>152</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="15"/>
+      <c r="K120" s="6"/>
+      <c r="P120" s="20"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>151</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="K121" s="6"/>
+      <c r="P121" s="5"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F122" s="5"/>
+      <c r="K122" s="6"/>
+      <c r="P122" s="5"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>154</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="K123" s="6"/>
+      <c r="P123" s="5"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F124" s="5"/>
+      <c r="K124" s="6"/>
+      <c r="P124" s="5"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B125" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C125" s="4">
+        <v>100</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="K125" s="6"/>
+      <c r="P125" s="5"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F126" s="5"/>
+      <c r="K126" s="6"/>
+      <c r="P126" s="5"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>159</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="K127" s="6"/>
+      <c r="P127" s="5"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F128" s="5"/>
+      <c r="K128" s="6"/>
+      <c r="P128" s="5"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F129" s="5"/>
+      <c r="K129" s="6"/>
+      <c r="P129" s="5"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>160</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="15"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F131" s="5"/>
+      <c r="K131" s="6"/>
+      <c r="P131" s="5"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F132" s="5"/>
+      <c r="K132" s="6"/>
+      <c r="P132" s="5"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>255</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K133" s="6"/>
+      <c r="P133" s="17"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F134" s="5"/>
+      <c r="G134" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K134" s="6"/>
+      <c r="P134" s="17"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="7"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="7"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="5"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="20"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="20"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="20"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="15"/>
+      <c r="K141" s="6"/>
+      <c r="P141" s="5"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="K142" s="6"/>
+      <c r="P142" s="5"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F143" s="5"/>
+      <c r="K143" s="6"/>
+      <c r="P143" s="5"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B144" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="K144" s="6"/>
+      <c r="P144" s="5"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B145" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="K145" s="6"/>
+      <c r="P145" s="5"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F146" s="5"/>
+      <c r="K146" s="6"/>
+      <c r="P146" s="5"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="15"/>
+      <c r="K147" s="6"/>
+      <c r="P147" s="20"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="K148" s="6"/>
+      <c r="P148" s="5"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F149" s="5"/>
+      <c r="K149" s="6"/>
+      <c r="P149" s="5"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="F150" s="5"/>
+      <c r="K150" s="6"/>
+      <c r="P150" s="5"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F151" s="5"/>
+      <c r="K151" s="6"/>
+      <c r="P151" s="5"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B152" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" s="4">
+        <v>100</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="K152" s="6"/>
+      <c r="P152" s="5"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F153" s="5"/>
+      <c r="K153" s="6"/>
+      <c r="P153" s="5"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="K154" s="6"/>
+      <c r="P154" s="5"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F155" s="5"/>
+      <c r="K155" s="6"/>
+      <c r="P155" s="5"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F156" s="5"/>
+      <c r="K156" s="6"/>
+      <c r="P156" s="5"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="15"/>
+      <c r="K157" s="6"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F158" s="5"/>
+      <c r="K158" s="6"/>
+      <c r="P158" s="5"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>256</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K159" s="6"/>
+      <c r="P159" s="17"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F160" s="5"/>
+      <c r="G160" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K160" s="6"/>
+      <c r="P160" s="17"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="7"/>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="7"/>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="5"/>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>128</v>
+      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="20"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="20"/>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="20"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>149</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="15"/>
+      <c r="K167" s="6"/>
+      <c r="P167" s="5"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>150</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="K168" s="6"/>
+      <c r="P168" s="5"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F169" s="5"/>
+      <c r="K169" s="6"/>
+      <c r="P169" s="5"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B170" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="K170" s="6"/>
+      <c r="P170" s="5"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B171" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="K171" s="6"/>
+      <c r="P171" s="5"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F172" s="5"/>
+      <c r="K172" s="6"/>
+      <c r="P172" s="5"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>152</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="15"/>
+      <c r="K173" s="6"/>
+      <c r="P173" s="20"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>151</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="K174" s="6"/>
+      <c r="P174" s="5"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F175" s="5"/>
+      <c r="K175" s="6"/>
+      <c r="P175" s="5"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>154</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="K176" s="6"/>
+      <c r="P176" s="5"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F177" s="5"/>
+      <c r="K177" s="6"/>
+      <c r="P177" s="5"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B178" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="4">
+        <v>100</v>
+      </c>
+      <c r="F178" s="5"/>
+      <c r="K178" s="6"/>
+      <c r="P178" s="5"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F179" s="5"/>
+      <c r="K179" s="6"/>
+      <c r="P179" s="5"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>159</v>
+      </c>
+      <c r="F180" s="5"/>
+      <c r="K180" s="6"/>
+      <c r="P180" s="5"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F181" s="5"/>
+      <c r="K181" s="6"/>
+      <c r="P181" s="5"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F182" s="5"/>
+      <c r="K182" s="6"/>
+      <c r="P182" s="5"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>160</v>
+      </c>
+      <c r="F183" s="5"/>
+      <c r="G183" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="K183" s="6"/>
+      <c r="P183" s="17"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P23" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23 P48 P133:P134 P159:P160 P183 P66 P85 P104 P13:P14" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5212,370 +9968,549 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D03D6C-552E-49CA-8487-061E7F734CDC}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="87.09765625" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.796875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="81.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>113</v>
+    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" location="ログイン!A2" display="ログイン!A2" xr:uid="{F72D7484-B3BB-47AE-9AB7-C31C557DE47D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5941115-3F5C-40BF-B7D3-0A3F7924D4E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382455DA-A351-42D3-9ECB-462C740DE44C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="864" windowWidth="21816" windowHeight="9816" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース(2月21日時点) " sheetId="14" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="267">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1668,14 +1668,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ランキング表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランキング表示(所持金が同額のユーザーが存在)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ランキング表示用データの準備</t>
     <rPh sb="5" eb="8">
       <t>ヒョウジヨウ</t>
@@ -1862,26 +1854,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)「閉じる」ボタンをクリックして、ランキングポップアップを閉じる</t>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(2) H2コンソールより、以下のSQLを実行する</t>
-    <rPh sb="14" eb="16">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※事前準備前に、DBFluteタスクのreplace-schemaを実施してください</t>
     <rPh sb="1" eb="3">
       <t>ジゼン</t>
@@ -1914,28 +1886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>insert into POSSESSION_MONEY values(5, 10, now());</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE POSSESSION_MONEY  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SET POSSESSION_MONEY = 100, </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE=now()  WHERE USER_ID=5;</t>
-  </si>
-  <si>
-    <t>(3)「ランキングを表示する」ボタンをクリックする。</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・以下の順位で表示されること</t>
     <rPh sb="1" eb="3">
       <t>イカ</t>
@@ -1970,20 +1920,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4位:  test4</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5位:  test5</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4位:  test5</t>
     <rPh sb="1" eb="2">
       <t>イ</t>
@@ -2403,6 +2339,14 @@
   </si>
   <si>
     <t>・「ベット額が所持金を超えています。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POSSESSION_MONEY values(5, 100, now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング表示・ランキング表示(所持金が同額のユーザーが存在)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2693,7 +2637,7 @@
     <tableColumn id="5" xr3:uid="{8414F0A5-E529-491E-AEF7-299BFB25516A}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{82FEEB34-B925-4C80-A0C6-2B1DD03F4298}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{3923F39F-B1F8-4854-A9FB-632D6C466920}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2708,7 +2652,7 @@
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2736,7 +2680,7 @@
     <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3041,7 +2985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B22256-5498-4ADB-AF44-AFE5118263D1}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3176,7 +3122,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -3194,7 +3140,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -3212,7 +3158,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -3266,7 +3212,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -3284,7 +3230,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -3302,7 +3248,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -3320,7 +3266,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -3329,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3338,7 +3284,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -3356,7 +3302,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -3374,7 +3320,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -3464,7 +3410,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -3473,7 +3419,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -3482,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -3500,7 +3446,7 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -4708,7 +4654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E72D1D-BCB3-448C-A259-CA61D62F9459}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4731,7 +4679,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4744,7 +4692,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4768,7 +4716,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4803,7 +4751,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -4812,10 +4760,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4823,10 +4771,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4834,10 +4782,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4845,10 +4793,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4856,10 +4804,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4867,7 +4815,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
@@ -4879,7 +4827,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -4888,7 +4836,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -4897,7 +4845,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -4906,13 +4854,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I24" s="5"/>
     </row>
@@ -4921,7 +4869,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I26" s="5"/>
     </row>
@@ -4930,31 +4878,31 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I32" s="5"/>
     </row>
@@ -4963,7 +4911,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I34" s="5"/>
     </row>
@@ -4972,7 +4920,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -4981,7 +4929,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="5"/>
     </row>
@@ -4990,32 +4938,32 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -5038,7 +4986,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I46" s="5"/>
     </row>
@@ -5047,7 +4995,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I48" s="5"/>
     </row>
@@ -5067,7 +5015,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5091,7 +5039,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I53" s="5"/>
     </row>
@@ -5100,13 +5048,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B56" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -5131,9 +5079,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD9F349-E98B-4D27-B152-73A9DCCD1D29}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5167,7 +5117,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5261,11 +5211,11 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K7" s="6"/>
       <c r="P7" s="17"/>
@@ -5273,35 +5223,27 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F8" s="5"/>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K8" s="6"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="F9" s="5"/>
       <c r="H9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K9" s="6"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="F10" s="5"/>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K10" s="6"/>
       <c r="P10" s="5"/>
@@ -5309,7 +5251,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F11" s="5"/>
       <c r="H11" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K11" s="6"/>
       <c r="P11" s="5"/>
@@ -5323,7 +5265,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5334,144 +5276,10 @@
       <c r="O12" s="3"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F14" s="24"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="P23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F24" s="5"/>
-      <c r="H24" t="s">
-        <v>207</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F25" s="5"/>
-      <c r="H25" t="s">
-        <v>208</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F26" s="5"/>
-      <c r="H26" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F27" s="5"/>
-      <c r="H27" t="s">
-        <v>212</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P23" xr:uid="{B625D952-08CB-45A2-B9F1-4B679634441A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7" xr:uid="{B625D952-08CB-45A2-B9F1-4B679634441A}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5688,7 +5496,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -5744,7 +5552,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -5771,11 +5579,11 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M21" s="6"/>
       <c r="R21" s="17"/>
@@ -5790,7 +5598,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5801,7 +5609,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5819,7 +5627,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -5905,7 +5713,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -6289,7 +6097,7 @@
         <v>49</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="Z4" s="17"/>
       <c r="AF4" s="5"/>
@@ -6309,7 +6117,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="M7" s="18" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="17"/>
       <c r="AF7" s="5"/>
@@ -6459,7 +6267,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>56</v>
@@ -6506,7 +6314,7 @@
     </row>
     <row r="24" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6557,7 +6365,7 @@
         <v>50</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="Z28" s="17"/>
       <c r="AF28" s="5"/>
@@ -6680,7 +6488,7 @@
         <v>50</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="Z39" s="17"/>
       <c r="AF39" s="5"/>
@@ -6693,7 +6501,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AF41" s="5"/>
     </row>
@@ -6752,7 +6560,7 @@
     </row>
     <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6803,7 +6611,7 @@
         <v>50</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Z50" s="17"/>
       <c r="AF50" s="5"/>
@@ -6816,7 +6624,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AF52" s="5"/>
     </row>
@@ -6904,7 +6712,7 @@
     </row>
     <row r="57" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6955,7 +6763,7 @@
         <v>50</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Z61" s="17"/>
       <c r="AF61" s="5"/>
@@ -6968,7 +6776,7 @@
         <v>51</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AF63" s="5"/>
     </row>
@@ -6986,7 +6794,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AF65" s="5"/>
     </row>
@@ -7080,7 +6888,7 @@
         <v>50</v>
       </c>
       <c r="M72" s="18" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Z72" s="17"/>
       <c r="AF72" s="5"/>
@@ -7093,7 +6901,7 @@
         <v>51</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AF74" s="5"/>
     </row>
@@ -7102,7 +6910,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AF75" s="5"/>
     </row>
@@ -7111,7 +6919,7 @@
         <v>53</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AF76" s="5"/>
     </row>
@@ -7120,7 +6928,7 @@
     </row>
     <row r="78" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -7171,7 +6979,7 @@
         <v>50</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AF82" s="5"/>
@@ -7184,7 +6992,7 @@
         <v>51</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AF84" s="5"/>
     </row>
@@ -7193,7 +7001,7 @@
         <v>52</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AF85" s="5"/>
     </row>
@@ -7202,7 +7010,7 @@
         <v>53</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AF86" s="5"/>
     </row>
@@ -7265,7 +7073,7 @@
         <v>50</v>
       </c>
       <c r="M93" s="18" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="Z93" s="17"/>
       <c r="AF93" s="5"/>
@@ -7278,7 +7086,7 @@
         <v>51</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AF95" s="5"/>
     </row>
@@ -7287,7 +7095,7 @@
         <v>52</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AF96" s="5"/>
     </row>
@@ -7296,7 +7104,7 @@
         <v>53</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AF97" s="5"/>
     </row>
@@ -7482,7 +7290,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7875,7 +7683,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="15"/>
@@ -7948,7 +7756,7 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="15" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="K47" s="6"/>
       <c r="P47" s="17"/>
@@ -8172,7 +7980,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K13" s="6"/>
       <c r="P13" s="17"/>
@@ -8183,7 +7991,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="15" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K14" s="6"/>
       <c r="P14" s="17"/>
@@ -8493,11 +8301,11 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="15" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K48" s="6"/>
       <c r="P48" s="17"/>
@@ -8532,7 +8340,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -8701,7 +8509,7 @@
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="15" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K66" s="6"/>
       <c r="P66" s="17"/>
@@ -8745,7 +8553,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -8914,7 +8722,7 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="15" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K85" s="6"/>
       <c r="P85" s="17"/>
@@ -9129,7 +8937,7 @@
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="15" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="K104" s="6"/>
       <c r="P104" s="17"/>
@@ -9405,11 +9213,11 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K133" s="6"/>
       <c r="P133" s="17"/>
@@ -9417,7 +9225,7 @@
     <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F134" s="5"/>
       <c r="G134" s="15" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K134" s="6"/>
       <c r="P134" s="17"/>
@@ -9442,7 +9250,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -9667,7 +9475,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="15" t="s">
@@ -9704,7 +9512,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -9920,7 +9728,7 @@
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="15" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="K183" s="6"/>
       <c r="P183" s="17"/>

--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382455DA-A351-42D3-9ECB-462C740DE44C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1231F-CC15-46CB-9CF2-79DADE6243DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="1068" yWindow="1176" windowWidth="21816" windowHeight="9816" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース(2月21日時点) " sheetId="14" r:id="rId1"/>
     <sheet name="事前準備" sheetId="13" r:id="rId2"/>
     <sheet name="ランキング表示" sheetId="10" r:id="rId3"/>
-    <sheet name="ログイン" sheetId="6" r:id="rId4"/>
-    <sheet name="ユーザー登録" sheetId="5" r:id="rId5"/>
+    <sheet name="ユーザー登録" sheetId="5" r:id="rId4"/>
+    <sheet name="ログイン" sheetId="6" r:id="rId5"/>
     <sheet name="ポーカースタート" sheetId="11" r:id="rId6"/>
     <sheet name="ポーカープレイ" sheetId="12" r:id="rId7"/>
     <sheet name="BK" sheetId="8" r:id="rId8"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="285">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -1748,102 +1748,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM POKER_USER_INFO; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM POSSESSION_MONEY; </t>
-  </si>
-  <si>
-    <t>DELETE FROM POKER_USER_INFO;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SELECT * FROM POSSESSION_MONEY;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test1', 'aaa', now());</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test2', 'bbb', now());</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test3', 'ccc', now());</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test4', 'ddd', now());</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'test5', 'eee', now());</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(5)以下のSQLを実行する。</t>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4)以下のSQLを実行して、結果が0件になることを確認する。</t>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(6)以下のSQLを実行する。</t>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SELECT * FROM POKER_USER_INFO;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(5)以下のSQLを実行してUSER_IDをみて、(6)のUSER_IDの部分を調べたUSER_IDに置き換える。</t>
-  </si>
-  <si>
-    <t>(7)以下のSQLを実行して、想定通りのデータが入っていることをする。</t>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ハイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1899,41 +1804,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1位:  test1</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2位:  test2</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3位:  test3</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4位:  test5</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5位:  test4</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)以下のSQLを実行する。</t>
     <rPh sb="3" eb="5">
       <t>イカ</t>
@@ -1961,22 +1831,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)以下の情報を入力して、「登録」ボタンをクリックする。</t>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>insert into POKER_USER_INFO values(POKER_USER_ID_SEQ1.nextval, 'older_user', 'aaaa', '2018-02-17 18:01:40.64');</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2347,6 +2201,237 @@
   </si>
   <si>
     <t>ランキング表示・ランキング表示(所持金が同額のユーザーが存在)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)以下の情報を入力して、「ログイン」ボタンをクリックする。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)以下の情報を入力して、「ログイン」ボタンをクリックする。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, '４６４９', 'ccc', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge_user</t>
+  </si>
+  <si>
+    <t>リヨウシャ</t>
+  </si>
+  <si>
+    <t>ポーカー達人</t>
+  </si>
+  <si>
+    <t>ｍａｓｔｅｒ</t>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'リヨウシャ', 'eee', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'ポーカー達人', 'bbb', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'hoge_user', 'aaa', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into POKER_USER_INFO  values(POKER_USER_ID_SEQ1.nextval, 'ｍａｓｔｅｒ', 'ddd', now());</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM POKER_USER_INFO; </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【POKER_USER_INFO】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【POSSESSION_MONEY】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOGIN_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert文実行日時</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSSESSION_MONEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)以下のSQLを実行する。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)以下のSQLを実行して、想定通りのデータが入っていることを確認する。</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※上記SQLの実行により、下記データが登録されている想定</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1位:  hoge_user</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2位:  ポーカー達人</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3位:  ４６４９</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6位:  older_user</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4位:  リヨウシャ</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5位:  ｍａｓｔｅｒ</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ベットの画面から表示が変わった後に、(5)の手順を実行する!</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>older_user</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2521,7 +2606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2597,12 +2682,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2611,6 +2741,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2633,17 +2778,67 @@
   <autoFilter ref="A1:F28" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="6">
     <tableColumn id="3" xr3:uid="{B4A28EE1-27FC-4187-874E-AFDE3E00D5E3}" name="テストケースNo"/>
-    <tableColumn id="7" xr3:uid="{278AFFF1-30B3-4954-AD1A-4578A72DF5C0}" name="テストケース名2"/>
+    <tableColumn id="7" xr3:uid="{278AFFF1-30B3-4954-AD1A-4578A72DF5C0}" name="テストケース名"/>
     <tableColumn id="5" xr3:uid="{8414F0A5-E529-491E-AEF7-299BFB25516A}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{82FEEB34-B925-4C80-A0C6-2B1DD03F4298}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{3923F39F-B1F8-4854-A9FB-632D6C466920}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1087503E-0F65-40E8-A40A-A0DC889317DF}" name="テーブル7" displayName="テーブル7" ref="A35:D40" totalsRowShown="0" dataDxfId="20">
+  <autoFilter ref="A35:D40" xr:uid="{729C46F3-43FD-4AD5-9D40-07C6D54FC338}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{85F624BF-165F-4DFE-87FB-F2C2D8FDF90B}" name="USER_ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{13FB6A64-B1DD-4955-A4B8-6410593D6E98}" name="USER_NAME" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9DC3CA68-6EF2-4ABD-B873-219D12945BD6}" name="PASSWORD" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{86EB31E7-E9D1-4541-8CC6-4775A9AC8B70}" name="LOGIN_DATE" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1AC35315-E9F4-437B-93F1-71C50D331D05}" name="テーブル9" displayName="テーブル9" ref="F35:H40" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="F35:H40" xr:uid="{1502DB66-6C61-42F6-9A10-5CBD0CD86534}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{28337627-73C4-4E53-959A-BD5F3678E4AF}" name="USER_ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A31FFED6-9611-4EC8-B4B6-60F5A7463C98}" name="POSSESSION_MONEY" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{89217FA8-7CDF-493D-88DE-32FDBC2E431D}" name="UPDATE_DATE" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AA5AACA-E4CE-485E-8155-37CEC1EBF524}" name="テーブル5" displayName="テーブル5" ref="A57:D58" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A57:D58" xr:uid="{6A9F5E3C-0ABD-44EC-A953-1B1DFB0A6808}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B7A15859-0BAF-473E-865A-1D75290C0629}" name="USER_ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F3265B14-9F2C-45DA-AE52-B1629C21A668}" name="USER_NAME" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{26E64147-087A-41D5-857D-EAD20FBCD38A}" name="PASSWORD" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{40995244-EAFB-4401-A8FA-1965E0A45293}" name="LOGIN_DATE" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3F6847FD-C840-4B54-9031-9401A75DD86C}" name="テーブル8" displayName="テーブル8" ref="F57:H58" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="F57:H58" xr:uid="{54523D8C-C18D-49DF-B43C-3B3C0D48846A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{033AE786-E9E1-4514-8FD3-416799F1382F}" name="USER_ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{44D2D34B-C292-4CEC-A37D-010D9C512DBC}" name="POSSESSION_MONEY" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3FFF5428-FF98-4A62-A73F-4C1A74C6D5BB}" name="UPDATE_DATE" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:F29" totalsRowShown="0">
   <autoFilter ref="A1:F29" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="6">
@@ -2652,13 +2847,13 @@
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4934993D-3DF2-4349-9239-8C0C66A8D38B}" name="テーブル14" displayName="テーブル14" ref="A1:E49" totalsRowShown="0">
   <autoFilter ref="A1:E49" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
@@ -2666,13 +2861,13 @@
     <tableColumn id="5" xr3:uid="{9E8931CC-0A54-4D2C-8FA0-B16B6B3A0D20}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{86099CD3-ABA6-4095-A870-3C9F2803678A}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{20ADE435-D5A4-479E-8CCB-C0B38AB6E7B0}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B9000-2A3C-4A7F-816D-5325D94F15E8}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
@@ -2680,7 +2875,7 @@
     <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2985,7 +3180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B22256-5498-4ADB-AF44-AFE5118263D1}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3003,7 +3198,7 @@
         <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -3122,7 +3317,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -3140,7 +3335,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -3158,7 +3353,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -3212,7 +3407,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -3230,7 +3425,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -3248,7 +3443,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -3266,7 +3461,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -3275,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3284,7 +3479,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -3302,7 +3497,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -3320,7 +3515,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -3410,7 +3605,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -3419,7 +3614,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -3428,7 +3623,7 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -3446,7 +3641,7 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -4652,16 +4847,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E72D1D-BCB3-448C-A259-CA61D62F9459}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="5" width="21.8984375" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -4679,7 +4880,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4767,6 +4968,9 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -4778,6 +4982,9 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -4789,6 +4996,9 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -4800,6 +5010,9 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -4811,6 +5024,9 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -4820,6 +5036,9 @@
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -4836,44 +5055,50 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>255</v>
+      </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>186</v>
+      <c r="B21" t="s">
+        <v>249</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>177</v>
-      </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>273</v>
+      </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>185</v>
-      </c>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -4895,195 +5120,416 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>183</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="25">
+        <v>1</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="25">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25">
+        <v>100000</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="25">
+        <v>2</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="25">
+        <v>2</v>
+      </c>
+      <c r="G37" s="25">
+        <v>10000</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="25">
+        <v>3</v>
+      </c>
+      <c r="B38" s="25">
+        <v>4649</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="25">
+        <v>3</v>
+      </c>
+      <c r="G38" s="25">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="25">
+        <v>4</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="25">
+        <v>4</v>
+      </c>
+      <c r="G39" s="25">
+        <v>100</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="25">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="25">
+        <v>5</v>
+      </c>
+      <c r="G40" s="25">
+        <v>100</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>258</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>184</v>
       </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
         <v>187</v>
       </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>193</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>195</v>
-      </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>196</v>
-      </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>190</v>
-      </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>179</v>
-      </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="7"/>
+      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>203</v>
-      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>207</v>
-      </c>
+      <c r="A55" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55" s="6"/>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B56" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="7"/>
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="26">
+        <v>6</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" s="26">
+        <v>6</v>
+      </c>
+      <c r="G58" s="26">
+        <v>10</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD9F349-E98B-4D27-B152-73A9DCCD1D29}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5117,7 +5563,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5211,11 +5657,11 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="15" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K7" s="6"/>
       <c r="P7" s="17"/>
@@ -5223,7 +5669,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F8" s="5"/>
       <c r="H8" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="K8" s="6"/>
       <c r="P8" s="5"/>
@@ -5233,7 +5679,7 @@
       <c r="C9" s="6"/>
       <c r="F9" s="5"/>
       <c r="H9" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="K9" s="6"/>
       <c r="P9" s="5"/>
@@ -5243,7 +5689,7 @@
       <c r="C10" s="6"/>
       <c r="F10" s="5"/>
       <c r="H10" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="K10" s="6"/>
       <c r="P10" s="5"/>
@@ -5251,30 +5697,62 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F11" s="5"/>
       <c r="H11" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="K11" s="6"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F13" s="5"/>
+      <c r="H13" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5288,711 +5766,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5FF0CC-9B19-41E6-9847-F3AE80571D60}">
-  <dimension ref="A1:S83"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="17"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="R7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="R17" s="17"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H18" s="5"/>
-      <c r="M18" s="6"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H20" s="5"/>
-      <c r="M20" s="6"/>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="R21" s="17"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H22" s="5"/>
-      <c r="M22" s="6"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="M23" s="6"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="M24" s="6"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H25" s="5"/>
-      <c r="M25" s="6"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H26" s="5"/>
-      <c r="M26" s="6"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A27" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="13"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H28" s="5"/>
-      <c r="M28" s="6"/>
-      <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="M29" s="6"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H30" s="5"/>
-      <c r="M30" s="6"/>
-      <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="R31" s="17"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H32" s="5"/>
-      <c r="M32" s="6"/>
-      <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="M33" s="6"/>
-      <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="M34" s="6"/>
-      <c r="R34" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H35" s="5"/>
-      <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H36" s="5"/>
-      <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="13"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H38" s="5"/>
-      <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="M39" s="6"/>
-      <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H40" s="5"/>
-      <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M41" s="6"/>
-      <c r="R41" s="17"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H42" s="5"/>
-      <c r="M42" s="6"/>
-      <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="M43" s="6"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="H44" s="5"/>
-      <c r="M44" s="6"/>
-      <c r="R44" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H45" s="5"/>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H46" s="5"/>
-      <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="13"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H48" s="5"/>
-      <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H49" s="5"/>
-      <c r="M49" s="6"/>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H50" s="5"/>
-      <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="M51" s="6"/>
-      <c r="R51" s="17"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H52" s="5"/>
-      <c r="M52" s="6"/>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="M53" s="6"/>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="M54" s="6"/>
-      <c r="R54" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H55" s="5"/>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="7"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H83" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4 R7 R17 R31 R41 R51 R21" xr:uid="{A6D2B6C5-340D-4F3F-A2AC-5960E35A8B47}">
-      <formula1>"〇,×"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8161A043-26CB-46AE-8D85-32404A9890E8}">
   <dimension ref="A1:AF131"/>
   <sheetViews>
@@ -6097,7 +5870,7 @@
         <v>49</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="Z4" s="17"/>
       <c r="AF4" s="5"/>
@@ -6117,7 +5890,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="M7" s="18" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="Z7" s="17"/>
       <c r="AF7" s="5"/>
@@ -6267,7 +6040,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>56</v>
@@ -6314,7 +6087,7 @@
     </row>
     <row r="24" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6365,7 +6138,7 @@
         <v>50</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="Z28" s="17"/>
       <c r="AF28" s="5"/>
@@ -6488,7 +6261,7 @@
         <v>50</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="Z39" s="17"/>
       <c r="AF39" s="5"/>
@@ -6501,7 +6274,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AF41" s="5"/>
     </row>
@@ -6560,7 +6333,7 @@
     </row>
     <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6611,7 +6384,7 @@
         <v>50</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="Z50" s="17"/>
       <c r="AF50" s="5"/>
@@ -6624,7 +6397,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AF52" s="5"/>
     </row>
@@ -6712,7 +6485,7 @@
     </row>
     <row r="57" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6763,7 +6536,7 @@
         <v>50</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="Z61" s="17"/>
       <c r="AF61" s="5"/>
@@ -6776,7 +6549,7 @@
         <v>51</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="AF63" s="5"/>
     </row>
@@ -6794,7 +6567,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="AF65" s="5"/>
     </row>
@@ -6888,7 +6661,7 @@
         <v>50</v>
       </c>
       <c r="M72" s="18" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="Z72" s="17"/>
       <c r="AF72" s="5"/>
@@ -6901,7 +6674,7 @@
         <v>51</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AF74" s="5"/>
     </row>
@@ -6910,7 +6683,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="AF75" s="5"/>
     </row>
@@ -6919,7 +6692,7 @@
         <v>53</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="AF76" s="5"/>
     </row>
@@ -6928,7 +6701,7 @@
     </row>
     <row r="78" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="12" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -6979,7 +6752,7 @@
         <v>50</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AF82" s="5"/>
@@ -6992,7 +6765,7 @@
         <v>51</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AF84" s="5"/>
     </row>
@@ -7001,7 +6774,7 @@
         <v>52</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="AF85" s="5"/>
     </row>
@@ -7010,7 +6783,7 @@
         <v>53</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="AF86" s="5"/>
     </row>
@@ -7073,7 +6846,7 @@
         <v>50</v>
       </c>
       <c r="M93" s="18" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="Z93" s="17"/>
       <c r="AF93" s="5"/>
@@ -7086,7 +6859,7 @@
         <v>51</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AF95" s="5"/>
     </row>
@@ -7095,7 +6868,7 @@
         <v>52</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="AF96" s="5"/>
     </row>
@@ -7104,7 +6877,7 @@
         <v>53</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="AF97" s="5"/>
     </row>
@@ -7252,11 +7025,720 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5FF0CC-9B19-41E6-9847-F3AE80571D60}">
+  <dimension ref="A1:S83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H25" s="5"/>
+      <c r="M25" s="6"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H26" s="5"/>
+      <c r="M26" s="6"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H30" s="5"/>
+      <c r="M30" s="6"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="R31" s="17"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H32" s="5"/>
+      <c r="M32" s="6"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="R34" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H35" s="5"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H36" s="5"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="R41" s="17"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H42" s="5"/>
+      <c r="M42" s="6"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="M43" s="6"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="M44" s="6"/>
+      <c r="R44" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H48" s="5"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="M49" s="6"/>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H50" s="5"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="R51" s="17"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H52" s="5"/>
+      <c r="M52" s="6"/>
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="M53" s="6"/>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="M54" s="6"/>
+      <c r="R54" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H55" s="5"/>
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="7"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H83" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4 R7 R17 R31 R41 R51 R21" xr:uid="{A6D2B6C5-340D-4F3F-A2AC-5960E35A8B47}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F8A19-DD5E-445B-BE63-15711740AE4D}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7290,7 +7772,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7487,14 +7969,19 @@
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>155</v>
-      </c>
+      <c r="A20" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="F20" s="5"/>
       <c r="K20" s="6"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="K21" s="6"/>
       <c r="P21" s="5"/>
@@ -7505,43 +7992,28 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="F23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="15" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="P23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="F24" s="5"/>
       <c r="K24" s="6"/>
-      <c r="P24" s="5"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="7"/>
+      <c r="F25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7559,33 +8031,33 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="5"/>
+      <c r="A27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -7594,16 +8066,18 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="20"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -7633,133 +8107,143 @@
       <c r="P30" s="20"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>149</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="P31" s="5"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="20"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="5"/>
+      <c r="G32" s="15"/>
       <c r="K32" s="6"/>
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="K33" s="6"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F34" s="5"/>
       <c r="K34" s="6"/>
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="5"/>
       <c r="K35" s="6"/>
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="K36" s="6"/>
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>218</v>
-      </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="15"/>
       <c r="K37" s="6"/>
-      <c r="P37" s="20"/>
+      <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="15"/>
+      <c r="K38" s="6"/>
+      <c r="P38" s="20"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F39" s="5"/>
       <c r="K39" s="6"/>
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>154</v>
-      </c>
       <c r="F40" s="5"/>
       <c r="K40" s="6"/>
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="K41" s="6"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B42" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="4">
-        <v>100</v>
-      </c>
       <c r="F42" s="5"/>
       <c r="K42" s="6"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="4">
+        <v>100</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="K43" s="6"/>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>155</v>
-      </c>
       <c r="F44" s="5"/>
       <c r="K44" s="6"/>
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="18" t="s">
+        <v>282</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="K45" s="6"/>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="K46" s="6"/>
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>156</v>
-      </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="K47" s="6"/>
-      <c r="P47" s="17"/>
+      <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F48" s="5"/>
@@ -7767,27 +8251,43 @@
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="7"/>
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="P49" s="17"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="F50" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P23 P47" xr:uid="{769C72F2-F98F-44D8-A341-46D0B982FE52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7 P24 P49" xr:uid="{769C72F2-F98F-44D8-A341-46D0B982FE52}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7980,7 +8480,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="15" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="K13" s="6"/>
       <c r="P13" s="17"/>
@@ -7991,7 +8491,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="15" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="K14" s="6"/>
       <c r="P14" s="17"/>
@@ -8301,11 +8801,11 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="15" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="K48" s="6"/>
       <c r="P48" s="17"/>
@@ -8340,7 +8840,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -8509,7 +9009,7 @@
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="15" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K66" s="6"/>
       <c r="P66" s="17"/>
@@ -8553,7 +9053,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -8722,7 +9222,7 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="15" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K85" s="6"/>
       <c r="P85" s="17"/>
@@ -8937,7 +9437,7 @@
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="15" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="K104" s="6"/>
       <c r="P104" s="17"/>
@@ -9213,11 +9713,11 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="15" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="K133" s="6"/>
       <c r="P133" s="17"/>
@@ -9225,7 +9725,7 @@
     <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F134" s="5"/>
       <c r="G134" s="15" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="K134" s="6"/>
       <c r="P134" s="17"/>
@@ -9250,7 +9750,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -9475,7 +9975,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="15" t="s">
@@ -9512,7 +10012,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -9728,7 +10228,7 @@
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="15" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="K183" s="6"/>
       <c r="P183" s="17"/>

--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1231F-CC15-46CB-9CF2-79DADE6243DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCCFDDC-902C-44F2-97B5-9B4DFAC73EA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="1176" windowWidth="21816" windowHeight="9816" activeTab="1" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="テストケース(2月21日時点) " sheetId="14" r:id="rId1"/>
+    <sheet name="テストケース(3月01日時点)" sheetId="15" r:id="rId1"/>
     <sheet name="事前準備" sheetId="13" r:id="rId2"/>
     <sheet name="ランキング表示" sheetId="10" r:id="rId3"/>
     <sheet name="ユーザー登録" sheetId="5" r:id="rId4"/>
@@ -21,9 +21,10 @@
     <sheet name="ポーカースタート" sheetId="11" r:id="rId6"/>
     <sheet name="ポーカープレイ" sheetId="12" r:id="rId7"/>
     <sheet name="BK" sheetId="8" r:id="rId8"/>
-    <sheet name="テストケース(2月20日時点)" sheetId="3" r:id="rId9"/>
-    <sheet name="テストケース(2月19日時点) " sheetId="9" r:id="rId10"/>
-    <sheet name="テストケース (2月18日時点)" sheetId="7" r:id="rId11"/>
+    <sheet name="テストケース(2月21日時点) " sheetId="14" r:id="rId9"/>
+    <sheet name="テストケース(2月20日時点)" sheetId="3" r:id="rId10"/>
+    <sheet name="テストケース(2月19日時点) " sheetId="9" r:id="rId11"/>
+    <sheet name="テストケース (2月18日時点)" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="287">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2432,6 +2433,64 @@
   </si>
   <si>
     <t>older_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ベット額入力フォームは未入力で表示されること
+・勝敗に応じて、指定したベット額分、所持金が増減すること(引き分けの場合は変動なし)
+・勝負後の所持金が表示されること</t>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勝負後の所持金が表示されること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2693,7 +2752,34 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2736,30 +2822,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2774,6 +2836,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{51D285F5-F51D-4C62-80AC-55BB39678058}" name="テーブル157" displayName="テーブル157" ref="A1:F28" totalsRowShown="0">
+  <autoFilter ref="A1:F28" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{01CF5DDD-CBAF-4961-B530-1F6C7AD6BCE1}" name="テストケースNo"/>
+    <tableColumn id="7" xr3:uid="{5D5897DB-DF05-4CDF-B854-131DDE184E8C}" name="テストケース名"/>
+    <tableColumn id="5" xr3:uid="{EF304794-053F-40E5-A3F3-6A2C90F72F6C}" name="確認対象画面"/>
+    <tableColumn id="1" xr3:uid="{BC3C8999-22C7-43D3-A4B1-649CF9C6E28E}" name="テスト区分"/>
+    <tableColumn id="2" xr3:uid="{81BB89E8-35C1-4E49-B289-494804817D59}" name="確認内容"/>
+    <tableColumn id="4" xr3:uid="{43109CFC-4A42-419E-909A-83280660047F}" name="結果" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1087503E-0F65-40E8-A40A-A0DC889317DF}" name="テーブル7" displayName="テーブル7" ref="A35:D40" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A35:D40" xr:uid="{729C46F3-43FD-4AD5-9D40-07C6D54FC338}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{85F624BF-165F-4DFE-87FB-F2C2D8FDF90B}" name="USER_ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{13FB6A64-B1DD-4955-A4B8-6410593D6E98}" name="USER_NAME" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{9DC3CA68-6EF2-4ABD-B873-219D12945BD6}" name="PASSWORD" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{86EB31E7-E9D1-4541-8CC6-4775A9AC8B70}" name="LOGIN_DATE" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1AC35315-E9F4-437B-93F1-71C50D331D05}" name="テーブル9" displayName="テーブル9" ref="F35:H40" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="F35:H40" xr:uid="{1502DB66-6C61-42F6-9A10-5CBD0CD86534}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{28337627-73C4-4E53-959A-BD5F3678E4AF}" name="USER_ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A31FFED6-9611-4EC8-B4B6-60F5A7463C98}" name="POSSESSION_MONEY" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{89217FA8-7CDF-493D-88DE-32FDBC2E431D}" name="UPDATE_DATE" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AA5AACA-E4CE-485E-8155-37CEC1EBF524}" name="テーブル5" displayName="テーブル5" ref="A57:D58" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A57:D58" xr:uid="{6A9F5E3C-0ABD-44EC-A953-1B1DFB0A6808}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B7A15859-0BAF-473E-865A-1D75290C0629}" name="USER_ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F3265B14-9F2C-45DA-AE52-B1629C21A668}" name="USER_NAME" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{26E64147-087A-41D5-857D-EAD20FBCD38A}" name="PASSWORD" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{40995244-EAFB-4401-A8FA-1965E0A45293}" name="LOGIN_DATE" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3F6847FD-C840-4B54-9031-9401A75DD86C}" name="テーブル8" displayName="テーブル8" ref="F57:H58" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="F57:H58" xr:uid="{54523D8C-C18D-49DF-B43C-3B3C0D48846A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{033AE786-E9E1-4514-8FD3-416799F1382F}" name="USER_ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{44D2D34B-C292-4CEC-A37D-010D9C512DBC}" name="POSSESSION_MONEY" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3FFF5428-FF98-4A62-A73F-4C1A74C6D5BB}" name="UPDATE_DATE" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3165C65-DB51-4B44-8A9F-D2C29901F688}" name="テーブル15" displayName="テーブル15" ref="A1:F28" totalsRowShown="0">
   <autoFilter ref="A1:F28" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="6">
@@ -2782,63 +2909,13 @@
     <tableColumn id="5" xr3:uid="{8414F0A5-E529-491E-AEF7-299BFB25516A}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{82FEEB34-B925-4C80-A0C6-2B1DD03F4298}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{3923F39F-B1F8-4854-A9FB-632D6C466920}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1087503E-0F65-40E8-A40A-A0DC889317DF}" name="テーブル7" displayName="テーブル7" ref="A35:D40" totalsRowShown="0" dataDxfId="20">
-  <autoFilter ref="A35:D40" xr:uid="{729C46F3-43FD-4AD5-9D40-07C6D54FC338}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85F624BF-165F-4DFE-87FB-F2C2D8FDF90B}" name="USER_ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{13FB6A64-B1DD-4955-A4B8-6410593D6E98}" name="USER_NAME" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{9DC3CA68-6EF2-4ABD-B873-219D12945BD6}" name="PASSWORD" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{86EB31E7-E9D1-4541-8CC6-4775A9AC8B70}" name="LOGIN_DATE" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1AC35315-E9F4-437B-93F1-71C50D331D05}" name="テーブル9" displayName="テーブル9" ref="F35:H40" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="F35:H40" xr:uid="{1502DB66-6C61-42F6-9A10-5CBD0CD86534}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{28337627-73C4-4E53-959A-BD5F3678E4AF}" name="USER_ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A31FFED6-9611-4EC8-B4B6-60F5A7463C98}" name="POSSESSION_MONEY" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{89217FA8-7CDF-493D-88DE-32FDBC2E431D}" name="UPDATE_DATE" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AA5AACA-E4CE-485E-8155-37CEC1EBF524}" name="テーブル5" displayName="テーブル5" ref="A57:D58" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A57:D58" xr:uid="{6A9F5E3C-0ABD-44EC-A953-1B1DFB0A6808}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B7A15859-0BAF-473E-865A-1D75290C0629}" name="USER_ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F3265B14-9F2C-45DA-AE52-B1629C21A668}" name="USER_NAME" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{26E64147-087A-41D5-857D-EAD20FBCD38A}" name="PASSWORD" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{40995244-EAFB-4401-A8FA-1965E0A45293}" name="LOGIN_DATE" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3F6847FD-C840-4B54-9031-9401A75DD86C}" name="テーブル8" displayName="テーブル8" ref="F57:H58" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="F57:H58" xr:uid="{54523D8C-C18D-49DF-B43C-3B3C0D48846A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{033AE786-E9E1-4514-8FD3-416799F1382F}" name="USER_ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{44D2D34B-C292-4CEC-A37D-010D9C512DBC}" name="POSSESSION_MONEY" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3FFF5428-FF98-4A62-A73F-4C1A74C6D5BB}" name="UPDATE_DATE" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:F29" totalsRowShown="0">
   <autoFilter ref="A1:F29" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="6">
@@ -2847,13 +2924,13 @@
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4934993D-3DF2-4349-9239-8C0C66A8D38B}" name="テーブル14" displayName="テーブル14" ref="A1:E49" totalsRowShown="0">
   <autoFilter ref="A1:E49" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
@@ -2861,13 +2938,13 @@
     <tableColumn id="5" xr3:uid="{9E8931CC-0A54-4D2C-8FA0-B16B6B3A0D20}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{86099CD3-ABA6-4095-A870-3C9F2803678A}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{20ADE435-D5A4-479E-8CCB-C0B38AB6E7B0}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B9000-2A3C-4A7F-816D-5325D94F15E8}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
@@ -2875,7 +2952,7 @@
     <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3177,10 +3254,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B22256-5498-4ADB-AF44-AFE5118263D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5435B6B3-FA0F-40D4-9F94-975E9A992D03}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3555,7 +3632,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3569,7 +3646,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -3710,6 +3787,558 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.796875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="81.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" location="ログイン!A2" display="ログイン!A2" xr:uid="{F72D7484-B3BB-47AE-9AB7-C31C557DE47D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C0753-5C9D-4015-A97A-D60AF3C940FF}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -4472,7 +5101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D03D6C-552E-49CA-8487-061E7F734CDC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4849,7 +5478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E72D1D-BCB3-448C-A259-CA61D62F9459}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8299,7 +8928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FC7F8-A2F8-4999-959E-C9057BBFAD1D}">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8561,8 +9192,11 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F24" s="5"/>
+      <c r="G24" s="15" t="s">
+        <v>286</v>
+      </c>
       <c r="K24" s="6"/>
-      <c r="P24" s="5"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F25" s="5"/>
@@ -10254,7 +10888,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23 P48 P133:P134 P159:P160 P183 P66 P85 P104 P13:P14" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23:P24 P48 P133:P134 P159:P160 P183 P66 P85 P104 P13:P14" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10276,10 +10910,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B22256-5498-4ADB-AF44-AFE5118263D1}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10295,7 +10931,7 @@
         <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -10311,20 +10947,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -10333,25 +10969,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -10359,8 +10995,8 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
+      <c r="E4" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -10369,16 +11005,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -10387,16 +11023,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -10405,7 +11041,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -10414,7 +11050,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -10423,52 +11059,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -10477,16 +11113,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -10495,16 +11131,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -10513,16 +11149,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -10531,7 +11167,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -10540,7 +11176,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -10549,16 +11185,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -10567,7 +11203,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -10576,47 +11212,47 @@
         <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10652,7 +11288,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10670,7 +11306,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10690,46 +11326,46 @@
     </row>
     <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -10738,34 +11374,34 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -10774,16 +11410,16 @@
         <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -10791,34 +11427,13 @@
       <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>127</v>
+      <c r="E28" t="s">
+        <v>144</v>
       </c>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A2" location="ログイン!A2" display="ログイン!A2" xr:uid="{F72D7484-B3BB-47AE-9AB7-C31C557DE47D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCCFDDC-902C-44F2-97B5-9B4DFAC73EA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D2E9BE-75C0-47BB-A666-A3A8546C4848}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="288">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2047,16 +2047,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・所持金が変わらないこと</t>
-    <rPh sb="1" eb="4">
-      <t>ショジキン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・「ベット額が未入力です。」というエラーメッセージが表示されること</t>
     <rPh sb="26" eb="28">
       <t>ヒョウジ</t>
@@ -2492,6 +2482,36 @@
   <si>
     <t>・勝負後の所持金が表示されること</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「勝負しない」ボタンをクリックすると、所持金情報を更新せずに、
+「もう一度」・「スタートに戻る」ボタンが表示されること
+・勝負後の所持金が表示されないこと</t>
+    <rPh sb="2" eb="4">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もう一度」・「スタートに戻る」ボタンが表示されること</t>
   </si>
 </sst>
 </file>
@@ -2844,7 +2864,7 @@
     <tableColumn id="5" xr3:uid="{EF304794-053F-40E5-A3F3-6A2C90F72F6C}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{BC3C8999-22C7-43D3-A4B1-649CF9C6E28E}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{81BB89E8-35C1-4E49-B289-494804817D59}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{43109CFC-4A42-419E-909A-83280660047F}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{43109CFC-4A42-419E-909A-83280660047F}" name="結果" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2909,7 +2929,7 @@
     <tableColumn id="5" xr3:uid="{8414F0A5-E529-491E-AEF7-299BFB25516A}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{82FEEB34-B925-4C80-A0C6-2B1DD03F4298}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{3923F39F-B1F8-4854-A9FB-632D6C466920}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{85E60F50-21BE-4BD2-8306-2C93E4F25B59}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2924,7 +2944,7 @@
     <tableColumn id="5" xr3:uid="{50067249-B73F-4D55-836E-DB0F18D6E8F0}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{CDD1AAF5-9F97-4125-9905-E14A4F636BE2}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{D108CEC9-FBE7-4DD5-986A-F1CEEB35E62E}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8BFCE28F-D7E8-4375-A665-DBBAB6AEB02B}" name="結果" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2938,7 +2958,7 @@
     <tableColumn id="5" xr3:uid="{9E8931CC-0A54-4D2C-8FA0-B16B6B3A0D20}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{86099CD3-ABA6-4095-A870-3C9F2803678A}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{20ADE435-D5A4-479E-8CCB-C0B38AB6E7B0}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2952,7 +2972,7 @@
     <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3394,7 +3414,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -3412,7 +3432,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -3430,7 +3450,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -3484,7 +3504,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -3502,7 +3522,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -3520,7 +3540,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -3538,7 +3558,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -3556,7 +3576,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -3574,7 +3594,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -3592,7 +3612,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -3646,11 +3666,11 @@
         <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3664,13 +3684,13 @@
         <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -3682,13 +3702,13 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>213</v>
@@ -3700,13 +3720,13 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -3718,13 +3738,13 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
@@ -3742,7 +3762,7 @@
     </row>
     <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
@@ -3760,7 +3780,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>143</v>
@@ -5684,31 +5704,31 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -5717,7 +5737,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I25" s="5"/>
     </row>
@@ -5751,7 +5771,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -5774,7 +5794,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -5787,13 +5807,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -5801,26 +5821,26 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -5829,13 +5849,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="25">
@@ -5845,7 +5865,7 @@
         <v>100000</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -5854,13 +5874,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="25">
@@ -5870,7 +5890,7 @@
         <v>10000</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -5882,10 +5902,10 @@
         <v>4649</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="25">
@@ -5895,7 +5915,7 @@
         <v>1000</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I38" s="5"/>
     </row>
@@ -5904,13 +5924,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="25">
@@ -5920,7 +5940,7 @@
         <v>100</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -5929,13 +5949,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>269</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>270</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="25">
@@ -5945,7 +5965,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -5962,7 +5982,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I42" s="5"/>
     </row>
@@ -5971,7 +5991,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -6047,7 +6067,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -6059,13 +6079,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G55" s="6"/>
       <c r="I55" s="5"/>
@@ -6078,25 +6098,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I57" s="5"/>
     </row>
@@ -6105,13 +6125,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F58" s="26">
         <v>6</v>
@@ -6120,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I58" s="5"/>
     </row>
@@ -6192,7 +6212,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6298,7 +6318,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F8" s="5"/>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K8" s="6"/>
       <c r="P8" s="5"/>
@@ -6308,7 +6328,7 @@
       <c r="C9" s="6"/>
       <c r="F9" s="5"/>
       <c r="H9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K9" s="6"/>
       <c r="P9" s="5"/>
@@ -6318,7 +6338,7 @@
       <c r="C10" s="6"/>
       <c r="F10" s="5"/>
       <c r="H10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K10" s="6"/>
       <c r="P10" s="5"/>
@@ -6326,7 +6346,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F11" s="5"/>
       <c r="H11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K11" s="6"/>
       <c r="P11" s="5"/>
@@ -6334,7 +6354,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K12" s="6"/>
       <c r="P12" s="5"/>
@@ -6342,7 +6362,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K13" s="6"/>
       <c r="P13" s="5"/>
@@ -6519,7 +6539,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="M7" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Z7" s="17"/>
       <c r="AF7" s="5"/>
@@ -7802,7 +7822,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="15" t="s">
@@ -7865,7 +7885,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7921,7 +7941,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -7948,7 +7968,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="15" t="s">
@@ -7996,7 +8016,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -8036,7 +8056,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="15" t="s">
@@ -8082,7 +8102,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -8120,7 +8140,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="15" t="s">
@@ -8204,7 +8224,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="15" t="s">
@@ -8599,7 +8619,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -8855,7 +8875,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F45" s="5"/>
       <c r="K45" s="6"/>
@@ -8928,8 +8948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FC7F8-A2F8-4999-959E-C9057BBFAD1D}">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9111,7 +9131,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K13" s="6"/>
       <c r="P13" s="17"/>
@@ -9122,7 +9142,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K14" s="6"/>
       <c r="P14" s="17"/>
@@ -9193,7 +9213,7 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F24" s="5"/>
       <c r="G24" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K24" s="6"/>
       <c r="P24" s="17"/>
@@ -9439,15 +9459,18 @@
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="15" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="K48" s="6"/>
       <c r="P48" s="17"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F49" s="5"/>
+      <c r="G49" s="15" t="s">
+        <v>285</v>
+      </c>
       <c r="K49" s="6"/>
-      <c r="P49" s="5"/>
+      <c r="P49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F50" s="5"/>
@@ -9643,7 +9666,7 @@
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K66" s="6"/>
       <c r="P66" s="17"/>
@@ -9856,7 +9879,7 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K85" s="6"/>
       <c r="P85" s="17"/>
@@ -10071,7 +10094,7 @@
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K104" s="6"/>
       <c r="P104" s="17"/>
@@ -10347,11 +10370,11 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K133" s="6"/>
       <c r="P133" s="17"/>
@@ -10359,7 +10382,7 @@
     <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F134" s="5"/>
       <c r="G134" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K134" s="6"/>
       <c r="P134" s="17"/>
@@ -10609,7 +10632,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="15" t="s">
@@ -10862,7 +10885,7 @@
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K183" s="6"/>
       <c r="P183" s="17"/>
@@ -10888,7 +10911,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23:P24 P48 P133:P134 P159:P160 P183 P66 P85 P104 P13:P14" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23:P24 P48:P49 P133:P134 P159:P160 P183 P66 P85 P104 P13:P14" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11050,7 +11073,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -11068,7 +11091,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -11086,7 +11109,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -11140,7 +11163,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -11158,7 +11181,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -11176,7 +11199,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -11194,7 +11217,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -11212,7 +11235,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -11230,7 +11253,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -11248,7 +11271,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -11338,7 +11361,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -11356,7 +11379,7 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -11374,7 +11397,7 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F25" s="2"/>
     </row>

--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D2E9BE-75C0-47BB-A666-A3A8546C4848}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267354F1-D583-4EBA-A681-A2D8B8231B04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="テストケース(3月01日時点)" sheetId="15" r:id="rId1"/>
+    <sheet name="テストケース(3月02日時点)" sheetId="16" r:id="rId1"/>
     <sheet name="事前準備" sheetId="13" r:id="rId2"/>
     <sheet name="ランキング表示" sheetId="10" r:id="rId3"/>
     <sheet name="ユーザー登録" sheetId="5" r:id="rId4"/>
@@ -21,10 +21,11 @@
     <sheet name="ポーカースタート" sheetId="11" r:id="rId6"/>
     <sheet name="ポーカープレイ" sheetId="12" r:id="rId7"/>
     <sheet name="BK" sheetId="8" r:id="rId8"/>
-    <sheet name="テストケース(2月21日時点) " sheetId="14" r:id="rId9"/>
-    <sheet name="テストケース(2月20日時点)" sheetId="3" r:id="rId10"/>
-    <sheet name="テストケース(2月19日時点) " sheetId="9" r:id="rId11"/>
-    <sheet name="テストケース (2月18日時点)" sheetId="7" r:id="rId12"/>
+    <sheet name="テストケース(3月01日時点)" sheetId="15" r:id="rId9"/>
+    <sheet name="テストケース(2月21日時点) " sheetId="14" r:id="rId10"/>
+    <sheet name="テストケース(2月20日時点)" sheetId="3" r:id="rId11"/>
+    <sheet name="テストケース(2月19日時点) " sheetId="9" r:id="rId12"/>
+    <sheet name="テストケース (2月18日時点)" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="293">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2054,16 +2055,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・「ベット額が0円です。」というエラーメッセージが表示されること</t>
-    <rPh sb="8" eb="9">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・「ベット額が所持金を超えています。」というエラーメッセージが表示されること</t>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
@@ -2108,10 +2099,6 @@
     <rPh sb="9" eb="10">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・役の表示箇所に手札に応じたと表示されること</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2512,6 +2499,98 @@
   </si>
   <si>
     <t>「もう一度」・「スタートに戻る」ボタンが表示されること</t>
+  </si>
+  <si>
+    <t>ベットフェイズの所持金変動</t>
+    <rPh sb="8" eb="11">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーカーの勝負で勝利 or 敗北後に「もう一度」ボタンをクリックして、
+　ポーカープレイ画面のベットフェイズに遷移すると、「現在の所持金」が変わっていること</t>
+    <rPh sb="6" eb="8">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ベット額は1円以上になるように入力してください。」というエラーメッセージが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「ベット額は1円以上になるように入力してください。」というエラーメッセージが表示されること</t>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勝負後の所持金が表示されないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所に手札に応じた役が表示されること</t>
+    <rPh sb="14" eb="15">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・役の表示箇所に手札に応じた役が表示されること</t>
+    <rPh sb="1" eb="2">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2772,7 +2851,10 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2856,6 +2938,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{455A4A3D-BE45-499D-B769-F4DDF73B8456}" name="テーブル15711" displayName="テーブル15711" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{93E6FC0E-9BE4-4E61-B1DE-6CD8916A5BC0}" name="テストケースNo"/>
+    <tableColumn id="7" xr3:uid="{604ADCFD-1632-494D-839C-C2DF1B67AB2B}" name="テストケース名"/>
+    <tableColumn id="5" xr3:uid="{8D7B6CB6-DC7F-4421-ADD6-908438DB0420}" name="確認対象画面"/>
+    <tableColumn id="1" xr3:uid="{BEF05927-DDC8-4F3A-959A-FCFD2569D42F}" name="テスト区分"/>
+    <tableColumn id="2" xr3:uid="{32AEDD7F-A63D-4F97-80F5-6BE39D5D0D1F}" name="確認内容"/>
+    <tableColumn id="4" xr3:uid="{29A5841F-C2D8-4FA7-9D47-352A6B387C4E}" name="結果" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B9000-2A3C-4A7F-816D-5325D94F15E8}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
+  <autoFilter ref="A1:E23" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
+  <tableColumns count="5">
+    <tableColumn id="7" xr3:uid="{B043A648-9C7E-4146-A595-A3D206E16372}" name="テストケース名"/>
+    <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
+    <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
+    <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
+    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1087503E-0F65-40E8-A40A-A0DC889317DF}" name="テーブル7" displayName="テーブル7" ref="A35:D40" totalsRowShown="0" dataDxfId="22">
+  <autoFilter ref="A35:D40" xr:uid="{729C46F3-43FD-4AD5-9D40-07C6D54FC338}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{85F624BF-165F-4DFE-87FB-F2C2D8FDF90B}" name="USER_ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{13FB6A64-B1DD-4955-A4B8-6410593D6E98}" name="USER_NAME" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9DC3CA68-6EF2-4ABD-B873-219D12945BD6}" name="PASSWORD" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{86EB31E7-E9D1-4541-8CC6-4775A9AC8B70}" name="LOGIN_DATE" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1AC35315-E9F4-437B-93F1-71C50D331D05}" name="テーブル9" displayName="テーブル9" ref="F35:H40" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="F35:H40" xr:uid="{1502DB66-6C61-42F6-9A10-5CBD0CD86534}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{28337627-73C4-4E53-959A-BD5F3678E4AF}" name="USER_ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A31FFED6-9611-4EC8-B4B6-60F5A7463C98}" name="POSSESSION_MONEY" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{89217FA8-7CDF-493D-88DE-32FDBC2E431D}" name="UPDATE_DATE" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AA5AACA-E4CE-485E-8155-37CEC1EBF524}" name="テーブル5" displayName="テーブル5" ref="A57:D58" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A57:D58" xr:uid="{6A9F5E3C-0ABD-44EC-A953-1B1DFB0A6808}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B7A15859-0BAF-473E-865A-1D75290C0629}" name="USER_ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F3265B14-9F2C-45DA-AE52-B1629C21A668}" name="USER_NAME" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{26E64147-087A-41D5-857D-EAD20FBCD38A}" name="PASSWORD" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{40995244-EAFB-4401-A8FA-1965E0A45293}" name="LOGIN_DATE" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3F6847FD-C840-4B54-9031-9401A75DD86C}" name="テーブル8" displayName="テーブル8" ref="F57:H58" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="F57:H58" xr:uid="{54523D8C-C18D-49DF-B43C-3B3C0D48846A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{033AE786-E9E1-4514-8FD3-416799F1382F}" name="USER_ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{44D2D34B-C292-4CEC-A37D-010D9C512DBC}" name="POSSESSION_MONEY" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3FFF5428-FF98-4A62-A73F-4C1A74C6D5BB}" name="UPDATE_DATE" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{51D285F5-F51D-4C62-80AC-55BB39678058}" name="テーブル157" displayName="テーブル157" ref="A1:F28" totalsRowShown="0">
   <autoFilter ref="A1:F28" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="6">
@@ -2864,63 +3025,13 @@
     <tableColumn id="5" xr3:uid="{EF304794-053F-40E5-A3F3-6A2C90F72F6C}" name="確認対象画面"/>
     <tableColumn id="1" xr3:uid="{BC3C8999-22C7-43D3-A4B1-649CF9C6E28E}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{81BB89E8-35C1-4E49-B289-494804817D59}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{43109CFC-4A42-419E-909A-83280660047F}" name="結果" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{43109CFC-4A42-419E-909A-83280660047F}" name="結果" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1087503E-0F65-40E8-A40A-A0DC889317DF}" name="テーブル7" displayName="テーブル7" ref="A35:D40" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A35:D40" xr:uid="{729C46F3-43FD-4AD5-9D40-07C6D54FC338}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85F624BF-165F-4DFE-87FB-F2C2D8FDF90B}" name="USER_ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{13FB6A64-B1DD-4955-A4B8-6410593D6E98}" name="USER_NAME" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{9DC3CA68-6EF2-4ABD-B873-219D12945BD6}" name="PASSWORD" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{86EB31E7-E9D1-4541-8CC6-4775A9AC8B70}" name="LOGIN_DATE" dataDxfId="17"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1AC35315-E9F4-437B-93F1-71C50D331D05}" name="テーブル9" displayName="テーブル9" ref="F35:H40" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="F35:H40" xr:uid="{1502DB66-6C61-42F6-9A10-5CBD0CD86534}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{28337627-73C4-4E53-959A-BD5F3678E4AF}" name="USER_ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A31FFED6-9611-4EC8-B4B6-60F5A7463C98}" name="POSSESSION_MONEY" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{89217FA8-7CDF-493D-88DE-32FDBC2E431D}" name="UPDATE_DATE" dataDxfId="13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AA5AACA-E4CE-485E-8155-37CEC1EBF524}" name="テーブル5" displayName="テーブル5" ref="A57:D58" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A57:D58" xr:uid="{6A9F5E3C-0ABD-44EC-A953-1B1DFB0A6808}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B7A15859-0BAF-473E-865A-1D75290C0629}" name="USER_ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{F3265B14-9F2C-45DA-AE52-B1629C21A668}" name="USER_NAME" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{26E64147-087A-41D5-857D-EAD20FBCD38A}" name="PASSWORD" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{40995244-EAFB-4401-A8FA-1965E0A45293}" name="LOGIN_DATE" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3F6847FD-C840-4B54-9031-9401A75DD86C}" name="テーブル8" displayName="テーブル8" ref="F57:H58" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="F57:H58" xr:uid="{54523D8C-C18D-49DF-B43C-3B3C0D48846A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{033AE786-E9E1-4514-8FD3-416799F1382F}" name="USER_ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{44D2D34B-C292-4CEC-A37D-010D9C512DBC}" name="POSSESSION_MONEY" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3FFF5428-FF98-4A62-A73F-4C1A74C6D5BB}" name="UPDATE_DATE" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3165C65-DB51-4B44-8A9F-D2C29901F688}" name="テーブル15" displayName="テーブル15" ref="A1:F28" totalsRowShown="0">
   <autoFilter ref="A1:F28" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="6">
@@ -2935,7 +3046,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14316C40-D7F5-428D-9114-EE51D7B190E2}" name="テーブル1" displayName="テーブル1" ref="A1:F29" totalsRowShown="0">
   <autoFilter ref="A1:F29" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="6">
@@ -2950,7 +3061,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4934993D-3DF2-4349-9239-8C0C66A8D38B}" name="テーブル14" displayName="テーブル14" ref="A1:E49" totalsRowShown="0">
   <autoFilter ref="A1:E49" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
   <tableColumns count="5">
@@ -2959,20 +3070,6 @@
     <tableColumn id="1" xr3:uid="{86099CD3-ABA6-4095-A870-3C9F2803678A}" name="テスト区分"/>
     <tableColumn id="2" xr3:uid="{20ADE435-D5A4-479E-8CCB-C0B38AB6E7B0}" name="確認内容"/>
     <tableColumn id="4" xr3:uid="{0022C02B-5915-4C35-8135-E9CB5788D74A}" name="結果" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A4B9000-2A3C-4A7F-816D-5325D94F15E8}" name="テーブル13" displayName="テーブル13" ref="A1:E23" totalsRowShown="0">
-  <autoFilter ref="A1:E23" xr:uid="{E29699C6-BF28-4E59-9781-BDDEF8CC1F3D}"/>
-  <tableColumns count="5">
-    <tableColumn id="7" xr3:uid="{B043A648-9C7E-4146-A595-A3D206E16372}" name="テストケース名"/>
-    <tableColumn id="5" xr3:uid="{F18D5C01-C1A2-4549-8A64-306F16C43CD7}" name="確認対象画面"/>
-    <tableColumn id="1" xr3:uid="{41ACF8C5-B895-434E-8FC2-831BA292D1F0}" name="テスト区分"/>
-    <tableColumn id="2" xr3:uid="{414211C4-F71E-4BA2-9309-2E024716D46F}" name="確認内容"/>
-    <tableColumn id="4" xr3:uid="{37F3870F-BC3A-4B0C-87A3-F3D979A21B1A}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3274,10 +3371,561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5435B6B3-FA0F-40D4-9F94-975E9A992D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45964DA6-C79C-4032-8C78-E72CFF1B50BD}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.796875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="82.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B22256-5498-4ADB-AF44-AFE5118263D1}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3414,7 +4062,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -3432,7 +4080,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -3450,7 +4098,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -3504,7 +4152,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -3522,7 +4170,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -3540,7 +4188,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -3558,7 +4206,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -3576,7 +4224,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -3594,7 +4242,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -3612,7 +4260,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -3652,7 +4300,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3666,11 +4314,11 @@
         <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3684,13 +4332,13 @@
         <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -3702,13 +4350,13 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>213</v>
@@ -3720,13 +4368,13 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -3738,13 +4386,13 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
@@ -3762,7 +4410,7 @@
     </row>
     <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
@@ -3780,7 +4428,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>143</v>
@@ -3806,7 +4454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CE1C0-BA77-4FDC-8053-F22C06395622}">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -4358,7 +5006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C0753-5C9D-4015-A97A-D60AF3C940FF}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -5121,7 +5769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D03D6C-552E-49CA-8487-061E7F734CDC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5704,31 +6352,31 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -5737,7 +6385,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I25" s="5"/>
     </row>
@@ -5771,7 +6419,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -5794,7 +6442,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -5807,13 +6455,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -5821,26 +6469,26 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -5849,13 +6497,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="25">
@@ -5865,7 +6513,7 @@
         <v>100000</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -5874,13 +6522,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="25">
@@ -5890,7 +6538,7 @@
         <v>10000</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -5902,10 +6550,10 @@
         <v>4649</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="25">
@@ -5915,7 +6563,7 @@
         <v>1000</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I38" s="5"/>
     </row>
@@ -5924,13 +6572,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C39" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>267</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>269</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="25">
@@ -5940,7 +6588,7 @@
         <v>100</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -5949,13 +6597,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="25">
@@ -5965,7 +6613,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -5982,7 +6630,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I42" s="5"/>
     </row>
@@ -5991,7 +6639,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -6067,7 +6715,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -6079,13 +6727,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G55" s="6"/>
       <c r="I55" s="5"/>
@@ -6098,25 +6746,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I57" s="5"/>
     </row>
@@ -6125,13 +6773,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F58" s="26">
         <v>6</v>
@@ -6140,7 +6788,7 @@
         <v>10</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I58" s="5"/>
     </row>
@@ -6212,7 +6860,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6318,7 +6966,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F8" s="5"/>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K8" s="6"/>
       <c r="P8" s="5"/>
@@ -6328,7 +6976,7 @@
       <c r="C9" s="6"/>
       <c r="F9" s="5"/>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K9" s="6"/>
       <c r="P9" s="5"/>
@@ -6338,7 +6986,7 @@
       <c r="C10" s="6"/>
       <c r="F10" s="5"/>
       <c r="H10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K10" s="6"/>
       <c r="P10" s="5"/>
@@ -6346,7 +6994,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F11" s="5"/>
       <c r="H11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K11" s="6"/>
       <c r="P11" s="5"/>
@@ -6354,7 +7002,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K12" s="6"/>
       <c r="P12" s="5"/>
@@ -6362,7 +7010,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K13" s="6"/>
       <c r="P13" s="5"/>
@@ -6539,7 +7187,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="M7" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z7" s="17"/>
       <c r="AF7" s="5"/>
@@ -7822,7 +8470,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="15" t="s">
@@ -7885,7 +8533,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7941,7 +8589,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -7968,7 +8616,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="15" t="s">
@@ -8016,7 +8664,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -8056,7 +8704,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="15" t="s">
@@ -8102,7 +8750,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -8140,7 +8788,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="15" t="s">
@@ -8224,7 +8872,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="15" t="s">
@@ -8619,7 +9267,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -8875,7 +9523,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F45" s="5"/>
       <c r="K45" s="6"/>
@@ -8946,10 +9594,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FC7F8-A2F8-4999-959E-C9057BBFAD1D}">
-  <dimension ref="A1:P184"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8958,7 +9606,7 @@
     <col min="3" max="3" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -8973,16 +9621,17 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>120</v>
       </c>
@@ -9000,9 +9649,10 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -9018,9 +9668,10 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -9038,9 +9689,10 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -9056,9 +9708,10 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -9074,31 +9727,32 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>149</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="15"/>
-      <c r="K7" s="6"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L7" s="6"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>150</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L8" s="6"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L9" s="6"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
@@ -9106,10 +9760,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L10" s="6"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
@@ -9117,55 +9771,55 @@
         <v>55</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L11" s="6"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L12" s="6"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>152</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="P13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>151</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L15" s="6"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>154</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L16" s="6"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L17" s="6"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>158</v>
       </c>
@@ -9173,33 +9827,33 @@
         <v>100</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L18" s="6"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F19" s="5"/>
-      <c r="K19" s="6"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L19" s="6"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>159</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L20" s="6"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L21" s="6"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L22" s="6"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>160</v>
       </c>
@@ -9207,23 +9861,23 @@
       <c r="G23" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="P23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L23" s="6"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F24" s="5"/>
       <c r="G24" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+        <v>283</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F25" s="5"/>
-      <c r="K25" s="6"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L25" s="6"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9239,9 +9893,10 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -9259,9 +9914,10 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -9277,9 +9933,10 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P28" s="6"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -9297,9 +9954,10 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="20"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="20"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -9315,9 +9973,10 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="20"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P30" s="6"/>
+      <c r="Q30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -9333,31 +9992,32 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="20"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P31" s="6"/>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>149</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="15"/>
-      <c r="K32" s="6"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L32" s="6"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>150</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L33" s="6"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F34" s="5"/>
-      <c r="K34" s="6"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L34" s="6"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
@@ -9365,10 +10025,10 @@
         <v>54</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L35" s="6"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
@@ -9376,50 +10036,50 @@
         <v>55</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L36" s="6"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L37" s="6"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>152</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="15"/>
-      <c r="K38" s="6"/>
-      <c r="P38" s="20"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L38" s="6"/>
+      <c r="Q38" s="20"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>151</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="K39" s="6"/>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L39" s="6"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L40" s="6"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>154</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="K41" s="6"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L41" s="6"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F42" s="5"/>
-      <c r="K42" s="6"/>
-      <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L42" s="6"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B43" s="4" t="s">
         <v>158</v>
       </c>
@@ -9427,57 +10087,57 @@
         <v>100</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="K43" s="6"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L43" s="6"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F44" s="5"/>
-      <c r="K44" s="6"/>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L44" s="6"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>159</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="K45" s="6"/>
-      <c r="P45" s="5"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L45" s="6"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L46" s="6"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L47" s="6"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>217</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="K48" s="6"/>
-      <c r="P48" s="17"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+        <v>285</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F49" s="5"/>
       <c r="G49" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="P49" s="17"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="Q49" s="17"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F50" s="5"/>
-      <c r="K50" s="6"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L50" s="6"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -9493,9 +10153,10 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="7"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>212</v>
       </c>
@@ -9513,9 +10174,10 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -9531,9 +10193,10 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="5"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P53" s="6"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -9551,9 +10214,10 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="20"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P54" s="6"/>
+      <c r="Q54" s="20"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -9569,9 +10233,10 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="20"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P55" s="6"/>
+      <c r="Q55" s="20"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -9587,31 +10252,32 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
-      <c r="P56" s="20"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P56" s="6"/>
+      <c r="Q56" s="20"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>149</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="15"/>
-      <c r="K57" s="6"/>
-      <c r="P57" s="5"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L57" s="6"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>150</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="K58" s="6"/>
-      <c r="P58" s="5"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L58" s="6"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F59" s="5"/>
-      <c r="K59" s="6"/>
-      <c r="P59" s="5"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L59" s="6"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B60" s="4" t="s">
         <v>51</v>
       </c>
@@ -9619,10 +10285,10 @@
         <v>54</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="K60" s="6"/>
-      <c r="P60" s="5"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L60" s="6"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B61" s="4" t="s">
         <v>52</v>
       </c>
@@ -9630,37 +10296,37 @@
         <v>55</v>
       </c>
       <c r="F61" s="5"/>
-      <c r="K61" s="6"/>
-      <c r="P61" s="5"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L61" s="6"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F62" s="5"/>
-      <c r="K62" s="6"/>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L62" s="6"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>152</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="15"/>
-      <c r="K63" s="6"/>
-      <c r="P63" s="20"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L63" s="6"/>
+      <c r="Q63" s="20"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>151</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="K64" s="6"/>
-      <c r="P64" s="5"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L64" s="6"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F65" s="5"/>
-      <c r="K65" s="6"/>
-      <c r="P65" s="5"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L65" s="6"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>154</v>
       </c>
@@ -9668,29 +10334,29 @@
       <c r="G66" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="K66" s="6"/>
-      <c r="P66" s="17"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L66" s="6"/>
+      <c r="Q66" s="17"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F67" s="5"/>
-      <c r="K67" s="6"/>
-      <c r="P67" s="5"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L67" s="6"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C68" s="4"/>
       <c r="F68" s="5"/>
-      <c r="K68" s="6"/>
-      <c r="P68" s="5"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L68" s="6"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F69" s="5"/>
-      <c r="K69" s="6"/>
-      <c r="P69" s="5"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L69" s="6"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -9706,9 +10372,10 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="7"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="7"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>214</v>
       </c>
@@ -9726,9 +10393,10 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="7"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -9744,9 +10412,10 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
-      <c r="P72" s="5"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P72" s="6"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -9764,9 +10433,10 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
-      <c r="P73" s="20"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P73" s="6"/>
+      <c r="Q73" s="20"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -9782,9 +10452,10 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
-      <c r="P74" s="20"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P74" s="6"/>
+      <c r="Q74" s="20"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -9800,31 +10471,32 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
-      <c r="P75" s="20"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P75" s="6"/>
+      <c r="Q75" s="20"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>149</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="15"/>
-      <c r="K76" s="6"/>
-      <c r="P76" s="5"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L76" s="6"/>
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>150</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="K77" s="6"/>
-      <c r="P77" s="5"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L77" s="6"/>
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F78" s="5"/>
-      <c r="K78" s="6"/>
-      <c r="P78" s="5"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L78" s="6"/>
+      <c r="Q78" s="5"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
         <v>51</v>
       </c>
@@ -9832,10 +10504,10 @@
         <v>54</v>
       </c>
       <c r="F79" s="5"/>
-      <c r="K79" s="6"/>
-      <c r="P79" s="5"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L79" s="6"/>
+      <c r="Q79" s="5"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B80" s="4" t="s">
         <v>52</v>
       </c>
@@ -9843,53 +10515,53 @@
         <v>55</v>
       </c>
       <c r="F80" s="5"/>
-      <c r="K80" s="6"/>
-      <c r="P80" s="5"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L80" s="6"/>
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F81" s="5"/>
-      <c r="K81" s="6"/>
-      <c r="P81" s="5"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L81" s="6"/>
+      <c r="Q81" s="5"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>152</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="15"/>
-      <c r="K82" s="6"/>
-      <c r="P82" s="20"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L82" s="6"/>
+      <c r="Q82" s="20"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>151</v>
       </c>
       <c r="F83" s="5"/>
-      <c r="K83" s="6"/>
-      <c r="P83" s="5"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L83" s="6"/>
+      <c r="Q83" s="5"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F84" s="5"/>
-      <c r="K84" s="6"/>
-      <c r="P84" s="5"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L84" s="6"/>
+      <c r="Q84" s="5"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>154</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="K85" s="6"/>
-      <c r="P85" s="17"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="Q85" s="17"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F86" s="5"/>
-      <c r="K86" s="6"/>
-      <c r="P86" s="5"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L86" s="6"/>
+      <c r="Q86" s="5"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B87" s="4" t="s">
         <v>158</v>
       </c>
@@ -9897,15 +10569,15 @@
         <v>0</v>
       </c>
       <c r="F87" s="5"/>
-      <c r="K87" s="6"/>
-      <c r="P87" s="5"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L87" s="6"/>
+      <c r="Q87" s="5"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F88" s="5"/>
-      <c r="K88" s="6"/>
-      <c r="P88" s="5"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L88" s="6"/>
+      <c r="Q88" s="5"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9921,9 +10593,10 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
-      <c r="P89" s="7"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P89" s="3"/>
+      <c r="Q89" s="7"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>40</v>
       </c>
@@ -9941,9 +10614,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-      <c r="P90" s="7"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="7"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -9959,9 +10633,10 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
-      <c r="P91" s="5"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P91" s="6"/>
+      <c r="Q91" s="5"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -9979,9 +10654,10 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
-      <c r="P92" s="20"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P92" s="6"/>
+      <c r="Q92" s="20"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -9997,9 +10673,10 @@
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
-      <c r="P93" s="20"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P93" s="6"/>
+      <c r="Q93" s="20"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -10015,31 +10692,32 @@
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
-      <c r="P94" s="20"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P94" s="6"/>
+      <c r="Q94" s="20"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>149</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="15"/>
-      <c r="K95" s="6"/>
-      <c r="P95" s="5"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L95" s="6"/>
+      <c r="Q95" s="5"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>150</v>
       </c>
       <c r="F96" s="5"/>
-      <c r="K96" s="6"/>
-      <c r="P96" s="5"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L96" s="6"/>
+      <c r="Q96" s="5"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F97" s="5"/>
-      <c r="K97" s="6"/>
-      <c r="P97" s="5"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L97" s="6"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B98" s="4" t="s">
         <v>51</v>
       </c>
@@ -10047,10 +10725,10 @@
         <v>54</v>
       </c>
       <c r="F98" s="5"/>
-      <c r="K98" s="6"/>
-      <c r="P98" s="5"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L98" s="6"/>
+      <c r="Q98" s="5"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B99" s="4" t="s">
         <v>52</v>
       </c>
@@ -10058,53 +10736,53 @@
         <v>55</v>
       </c>
       <c r="F99" s="5"/>
-      <c r="K99" s="6"/>
-      <c r="P99" s="5"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L99" s="6"/>
+      <c r="Q99" s="5"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F100" s="5"/>
-      <c r="K100" s="6"/>
-      <c r="P100" s="5"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L100" s="6"/>
+      <c r="Q100" s="5"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>152</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="15"/>
-      <c r="K101" s="6"/>
-      <c r="P101" s="20"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L101" s="6"/>
+      <c r="Q101" s="20"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>151</v>
       </c>
       <c r="F102" s="5"/>
-      <c r="K102" s="6"/>
-      <c r="P102" s="5"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L102" s="6"/>
+      <c r="Q102" s="5"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F103" s="5"/>
-      <c r="K103" s="6"/>
-      <c r="P103" s="5"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L103" s="6"/>
+      <c r="Q103" s="5"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>154</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="K104" s="6"/>
-      <c r="P104" s="17"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+      <c r="L104" s="6"/>
+      <c r="Q104" s="17"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F105" s="5"/>
-      <c r="K105" s="6"/>
-      <c r="P105" s="5"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L105" s="6"/>
+      <c r="Q105" s="5"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B106" s="4" t="s">
         <v>158</v>
       </c>
@@ -10112,15 +10790,15 @@
         <v>100000</v>
       </c>
       <c r="F106" s="5"/>
-      <c r="K106" s="6"/>
-      <c r="P106" s="5"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L106" s="6"/>
+      <c r="Q106" s="5"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F107" s="5"/>
-      <c r="K107" s="6"/>
-      <c r="P107" s="5"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L107" s="6"/>
+      <c r="Q107" s="5"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -10136,9 +10814,10 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
-      <c r="P108" s="7"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P108" s="3"/>
+      <c r="Q108" s="7"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>69</v>
       </c>
@@ -10156,9 +10835,10 @@
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
-      <c r="P109" s="7"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P109" s="3"/>
+      <c r="Q109" s="7"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -10174,9 +10854,10 @@
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
-      <c r="P110" s="5"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P110" s="6"/>
+      <c r="Q110" s="5"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -10194,9 +10875,10 @@
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
-      <c r="P111" s="20"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P111" s="6"/>
+      <c r="Q111" s="20"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -10212,9 +10894,10 @@
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
-      <c r="P112" s="20"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P112" s="6"/>
+      <c r="Q112" s="20"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -10230,31 +10913,32 @@
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
-      <c r="P113" s="20"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P113" s="6"/>
+      <c r="Q113" s="20"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>149</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="15"/>
-      <c r="K114" s="6"/>
-      <c r="P114" s="5"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L114" s="6"/>
+      <c r="Q114" s="5"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>150</v>
       </c>
       <c r="F115" s="5"/>
-      <c r="K115" s="6"/>
-      <c r="P115" s="5"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L115" s="6"/>
+      <c r="Q115" s="5"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F116" s="5"/>
-      <c r="K116" s="6"/>
-      <c r="P116" s="5"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L116" s="6"/>
+      <c r="Q116" s="5"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B117" s="4" t="s">
         <v>51</v>
       </c>
@@ -10262,10 +10946,10 @@
         <v>54</v>
       </c>
       <c r="F117" s="5"/>
-      <c r="K117" s="6"/>
-      <c r="P117" s="5"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L117" s="6"/>
+      <c r="Q117" s="5"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B118" s="4" t="s">
         <v>52</v>
       </c>
@@ -10273,50 +10957,50 @@
         <v>55</v>
       </c>
       <c r="F118" s="5"/>
-      <c r="K118" s="6"/>
-      <c r="P118" s="5"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L118" s="6"/>
+      <c r="Q118" s="5"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F119" s="5"/>
-      <c r="K119" s="6"/>
-      <c r="P119" s="5"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L119" s="6"/>
+      <c r="Q119" s="5"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>152</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="15"/>
-      <c r="K120" s="6"/>
-      <c r="P120" s="20"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L120" s="6"/>
+      <c r="Q120" s="20"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>151</v>
       </c>
       <c r="F121" s="5"/>
-      <c r="K121" s="6"/>
-      <c r="P121" s="5"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L121" s="6"/>
+      <c r="Q121" s="5"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F122" s="5"/>
-      <c r="K122" s="6"/>
-      <c r="P122" s="5"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L122" s="6"/>
+      <c r="Q122" s="5"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>154</v>
       </c>
       <c r="F123" s="5"/>
-      <c r="K123" s="6"/>
-      <c r="P123" s="5"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L123" s="6"/>
+      <c r="Q123" s="5"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F124" s="5"/>
-      <c r="K124" s="6"/>
-      <c r="P124" s="5"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L124" s="6"/>
+      <c r="Q124" s="5"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B125" s="4" t="s">
         <v>158</v>
       </c>
@@ -10324,70 +11008,70 @@
         <v>100</v>
       </c>
       <c r="F125" s="5"/>
-      <c r="K125" s="6"/>
-      <c r="P125" s="5"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L125" s="6"/>
+      <c r="Q125" s="5"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F126" s="5"/>
-      <c r="K126" s="6"/>
-      <c r="P126" s="5"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L126" s="6"/>
+      <c r="Q126" s="5"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>159</v>
       </c>
       <c r="F127" s="5"/>
-      <c r="K127" s="6"/>
-      <c r="P127" s="5"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L127" s="6"/>
+      <c r="Q127" s="5"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F128" s="5"/>
-      <c r="K128" s="6"/>
-      <c r="P128" s="5"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L128" s="6"/>
+      <c r="Q128" s="5"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F129" s="5"/>
-      <c r="K129" s="6"/>
-      <c r="P129" s="5"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L129" s="6"/>
+      <c r="Q129" s="5"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>160</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="15"/>
-      <c r="K130" s="6"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F131" s="5"/>
-      <c r="K131" s="6"/>
-      <c r="P131" s="5"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L131" s="6"/>
+      <c r="Q131" s="5"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F132" s="5"/>
-      <c r="K132" s="6"/>
-      <c r="P132" s="5"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L132" s="6"/>
+      <c r="Q132" s="5"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="K133" s="6"/>
-      <c r="P133" s="17"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+      <c r="L133" s="6"/>
+      <c r="Q133" s="17"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F134" s="5"/>
       <c r="G134" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="K134" s="6"/>
-      <c r="P134" s="17"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+      <c r="L134" s="6"/>
+      <c r="Q134" s="17"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -10403,9 +11087,10 @@
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
-      <c r="P135" s="7"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P135" s="3"/>
+      <c r="Q135" s="7"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>215</v>
       </c>
@@ -10423,9 +11108,10 @@
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
-      <c r="P136" s="7"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P136" s="3"/>
+      <c r="Q136" s="7"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -10441,9 +11127,10 @@
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="5"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P137" s="6"/>
+      <c r="Q137" s="5"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -10461,9 +11148,10 @@
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
-      <c r="P138" s="20"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P138" s="6"/>
+      <c r="Q138" s="20"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -10479,9 +11167,10 @@
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
-      <c r="P139" s="20"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P139" s="6"/>
+      <c r="Q139" s="20"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -10497,31 +11186,32 @@
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
       <c r="O140" s="6"/>
-      <c r="P140" s="20"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P140" s="6"/>
+      <c r="Q140" s="20"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>149</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="15"/>
-      <c r="K141" s="6"/>
-      <c r="P141" s="5"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L141" s="6"/>
+      <c r="Q141" s="5"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>150</v>
       </c>
       <c r="F142" s="5"/>
-      <c r="K142" s="6"/>
-      <c r="P142" s="5"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L142" s="6"/>
+      <c r="Q142" s="5"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F143" s="5"/>
-      <c r="K143" s="6"/>
-      <c r="P143" s="5"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L143" s="6"/>
+      <c r="Q143" s="5"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B144" s="4" t="s">
         <v>51</v>
       </c>
@@ -10529,10 +11219,10 @@
         <v>54</v>
       </c>
       <c r="F144" s="5"/>
-      <c r="K144" s="6"/>
-      <c r="P144" s="5"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L144" s="6"/>
+      <c r="Q144" s="5"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B145" s="4" t="s">
         <v>52</v>
       </c>
@@ -10540,50 +11230,50 @@
         <v>55</v>
       </c>
       <c r="F145" s="5"/>
-      <c r="K145" s="6"/>
-      <c r="P145" s="5"/>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L145" s="6"/>
+      <c r="Q145" s="5"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F146" s="5"/>
-      <c r="K146" s="6"/>
-      <c r="P146" s="5"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L146" s="6"/>
+      <c r="Q146" s="5"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>152</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="15"/>
-      <c r="K147" s="6"/>
-      <c r="P147" s="20"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L147" s="6"/>
+      <c r="Q147" s="20"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>151</v>
       </c>
       <c r="F148" s="5"/>
-      <c r="K148" s="6"/>
-      <c r="P148" s="5"/>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L148" s="6"/>
+      <c r="Q148" s="5"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F149" s="5"/>
-      <c r="K149" s="6"/>
-      <c r="P149" s="5"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L149" s="6"/>
+      <c r="Q149" s="5"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>154</v>
       </c>
       <c r="F150" s="5"/>
-      <c r="K150" s="6"/>
-      <c r="P150" s="5"/>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L150" s="6"/>
+      <c r="Q150" s="5"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F151" s="5"/>
-      <c r="K151" s="6"/>
-      <c r="P151" s="5"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L151" s="6"/>
+      <c r="Q151" s="5"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B152" s="4" t="s">
         <v>158</v>
       </c>
@@ -10591,65 +11281,65 @@
         <v>100</v>
       </c>
       <c r="F152" s="5"/>
-      <c r="K152" s="6"/>
-      <c r="P152" s="5"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L152" s="6"/>
+      <c r="Q152" s="5"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F153" s="5"/>
-      <c r="K153" s="6"/>
-      <c r="P153" s="5"/>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L153" s="6"/>
+      <c r="Q153" s="5"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>159</v>
       </c>
       <c r="F154" s="5"/>
-      <c r="K154" s="6"/>
-      <c r="P154" s="5"/>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L154" s="6"/>
+      <c r="Q154" s="5"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F155" s="5"/>
-      <c r="K155" s="6"/>
-      <c r="P155" s="5"/>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L155" s="6"/>
+      <c r="Q155" s="5"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F156" s="5"/>
-      <c r="K156" s="6"/>
-      <c r="P156" s="5"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L156" s="6"/>
+      <c r="Q156" s="5"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>160</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="15"/>
-      <c r="K157" s="6"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F158" s="5"/>
-      <c r="K158" s="6"/>
-      <c r="P158" s="5"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L158" s="6"/>
+      <c r="Q158" s="5"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K159" s="6"/>
-      <c r="P159" s="17"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L159" s="6"/>
+      <c r="Q159" s="17"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F160" s="5"/>
       <c r="G160" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="K160" s="6"/>
-      <c r="P160" s="17"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L160" s="6"/>
+      <c r="Q160" s="17"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -10665,9 +11355,10 @@
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
-      <c r="P161" s="7"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P161" s="3"/>
+      <c r="Q161" s="7"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>216</v>
       </c>
@@ -10685,9 +11376,10 @@
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
-      <c r="P162" s="7"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P162" s="3"/>
+      <c r="Q162" s="7"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -10703,9 +11395,10 @@
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
-      <c r="P163" s="5"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P163" s="6"/>
+      <c r="Q163" s="5"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -10723,9 +11416,10 @@
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
       <c r="O164" s="6"/>
-      <c r="P164" s="20"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P164" s="6"/>
+      <c r="Q164" s="20"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -10741,9 +11435,10 @@
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
       <c r="O165" s="6"/>
-      <c r="P165" s="20"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P165" s="6"/>
+      <c r="Q165" s="20"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -10759,31 +11454,32 @@
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
       <c r="O166" s="6"/>
-      <c r="P166" s="20"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P166" s="6"/>
+      <c r="Q166" s="20"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>149</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="15"/>
-      <c r="K167" s="6"/>
-      <c r="P167" s="5"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L167" s="6"/>
+      <c r="Q167" s="5"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>150</v>
       </c>
       <c r="F168" s="5"/>
-      <c r="K168" s="6"/>
-      <c r="P168" s="5"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L168" s="6"/>
+      <c r="Q168" s="5"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F169" s="5"/>
-      <c r="K169" s="6"/>
-      <c r="P169" s="5"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L169" s="6"/>
+      <c r="Q169" s="5"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B170" s="4" t="s">
         <v>51</v>
       </c>
@@ -10791,10 +11487,10 @@
         <v>54</v>
       </c>
       <c r="F170" s="5"/>
-      <c r="K170" s="6"/>
-      <c r="P170" s="5"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L170" s="6"/>
+      <c r="Q170" s="5"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B171" s="4" t="s">
         <v>52</v>
       </c>
@@ -10802,50 +11498,50 @@
         <v>55</v>
       </c>
       <c r="F171" s="5"/>
-      <c r="K171" s="6"/>
-      <c r="P171" s="5"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L171" s="6"/>
+      <c r="Q171" s="5"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F172" s="5"/>
-      <c r="K172" s="6"/>
-      <c r="P172" s="5"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L172" s="6"/>
+      <c r="Q172" s="5"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>152</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="15"/>
-      <c r="K173" s="6"/>
-      <c r="P173" s="20"/>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L173" s="6"/>
+      <c r="Q173" s="20"/>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>151</v>
       </c>
       <c r="F174" s="5"/>
-      <c r="K174" s="6"/>
-      <c r="P174" s="5"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L174" s="6"/>
+      <c r="Q174" s="5"/>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F175" s="5"/>
-      <c r="K175" s="6"/>
-      <c r="P175" s="5"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L175" s="6"/>
+      <c r="Q175" s="5"/>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>154</v>
       </c>
       <c r="F176" s="5"/>
-      <c r="K176" s="6"/>
-      <c r="P176" s="5"/>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L176" s="6"/>
+      <c r="Q176" s="5"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F177" s="5"/>
-      <c r="K177" s="6"/>
-      <c r="P177" s="5"/>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L177" s="6"/>
+      <c r="Q177" s="5"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B178" s="4" t="s">
         <v>158</v>
       </c>
@@ -10853,44 +11549,44 @@
         <v>100</v>
       </c>
       <c r="F178" s="5"/>
-      <c r="K178" s="6"/>
-      <c r="P178" s="5"/>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L178" s="6"/>
+      <c r="Q178" s="5"/>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F179" s="5"/>
-      <c r="K179" s="6"/>
-      <c r="P179" s="5"/>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L179" s="6"/>
+      <c r="Q179" s="5"/>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>159</v>
       </c>
       <c r="F180" s="5"/>
-      <c r="K180" s="6"/>
-      <c r="P180" s="5"/>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L180" s="6"/>
+      <c r="Q180" s="5"/>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F181" s="5"/>
-      <c r="K181" s="6"/>
-      <c r="P181" s="5"/>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L181" s="6"/>
+      <c r="Q181" s="5"/>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
       <c r="F182" s="5"/>
-      <c r="K182" s="6"/>
-      <c r="P182" s="5"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L182" s="6"/>
+      <c r="Q182" s="5"/>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>160</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="K183" s="6"/>
-      <c r="P183" s="17"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+      <c r="L183" s="6"/>
+      <c r="Q183" s="17"/>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -10906,12 +11602,13 @@
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
-      <c r="P184" s="7"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P23:P24 P48:P49 P133:P134 P159:P160 P183 P66 P85 P104 P13:P14" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q23:Q24 Q48:Q49 Q133:Q134 Q159:Q160 Q183 Q66 Q85 Q104 Q13:Q14" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10933,10 +11630,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B22256-5498-4ADB-AF44-AFE5118263D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5435B6B3-FA0F-40D4-9F94-975E9A992D03}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11073,7 +11770,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -11091,7 +11788,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -11109,7 +11806,7 @@
         <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -11163,7 +11860,7 @@
         <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -11181,7 +11878,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -11199,7 +11896,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -11217,7 +11914,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -11235,7 +11932,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -11253,7 +11950,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -11271,7 +11968,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -11311,7 +12008,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11325,11 +12022,11 @@
         <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11343,13 +12040,13 @@
         <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -11361,13 +12058,13 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>213</v>
@@ -11379,13 +12076,13 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -11397,13 +12094,13 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
@@ -11421,7 +12118,7 @@
     </row>
     <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
@@ -11439,7 +12136,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>143</v>

--- a/docs/結合テスト/結合テストケース.xlsx
+++ b/docs/結合テスト/結合テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267354F1-D583-4EBA-A681-A2D8B8231B04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF2373-BFD5-4DDA-9E8B-20CA3AC1CACE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{569B4C10-2D2E-422C-881C-247CD6F9FE90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="298">
   <si>
     <t>確認内容</t>
     <rPh sb="0" eb="2">
@@ -2589,6 +2589,83 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベットフェイズの所持金変動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「現在の所持金」に表示されている所持金を覚えておく</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「現在の所持金」に表示されている所持金が、(3)後に表示されていた値から変わっていること</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「スタートに戻る」ボタンをクリックして、(3)からやり直し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ポーカーの勝負結果が引き分けの場合は、(7)を実施せず、</t>
+    <rPh sb="6" eb="8">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9033,7 +9110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F8A19-DD5E-445B-BE63-15711740AE4D}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -9594,19 +9671,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949FC7F8-A2F8-4999-959E-C9057BBFAD1D}">
-  <dimension ref="A1:Q184"/>
+  <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="3" max="4" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>129</v>
       </c>
@@ -9614,24 +9691,25 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>120</v>
       </c>
@@ -9639,8 +9717,8 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -9650,16 +9728,17 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -9669,9 +9748,10 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -9679,9 +9759,9 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -9690,16 +9770,17 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -9709,16 +9790,17 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -9728,163 +9810,167 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="L7" s="6"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G7" s="5"/>
+      <c r="H7" s="15"/>
+      <c r="M7" s="6"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F12" s="5"/>
-      <c r="L12" s="6"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="Q13" s="17"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M13" s="6"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="Q14" s="17"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M14" s="6"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C18" s="4">
         <v>100</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="Q23" s="17"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F24" s="5"/>
-      <c r="G24" s="15" t="s">
+      <c r="M23" s="6"/>
+      <c r="R23" s="17"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G24" s="5"/>
+      <c r="H24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="Q24" s="17"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F25" s="5"/>
-      <c r="L25" s="6"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M24" s="6"/>
+      <c r="R24" s="17"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G25" s="5"/>
+      <c r="M25" s="6"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -9894,9 +9980,10 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -9904,8 +9991,8 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -9915,16 +10002,17 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -9934,9 +10022,10 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q28" s="6"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -9944,9 +10033,9 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -9955,16 +10044,17 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="20"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="20"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -9974,16 +10064,17 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="20"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q30" s="6"/>
+      <c r="R30" s="20"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -9993,158 +10084,162 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="20"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="20"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="15"/>
-      <c r="L32" s="6"/>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G32" s="5"/>
+      <c r="H32" s="15"/>
+      <c r="M32" s="6"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="L33" s="6"/>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F34" s="5"/>
-      <c r="L34" s="6"/>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="L35" s="6"/>
-      <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D35" s="6"/>
+      <c r="G35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="L36" s="6"/>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D36" s="6"/>
+      <c r="G36" s="5"/>
+      <c r="M36" s="6"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G37" s="5"/>
+      <c r="M37" s="6"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="15"/>
-      <c r="L38" s="6"/>
-      <c r="Q38" s="20"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G38" s="5"/>
+      <c r="H38" s="15"/>
+      <c r="M38" s="6"/>
+      <c r="R38" s="20"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="L39" s="6"/>
-      <c r="Q39" s="5"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F40" s="5"/>
-      <c r="L40" s="6"/>
-      <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G40" s="5"/>
+      <c r="M40" s="6"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="L41" s="6"/>
-      <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F42" s="5"/>
-      <c r="L42" s="6"/>
-      <c r="Q42" s="5"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G41" s="5"/>
+      <c r="M41" s="6"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G42" s="5"/>
+      <c r="M42" s="6"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B43" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C43" s="4">
         <v>100</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="L43" s="6"/>
-      <c r="Q43" s="5"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F44" s="5"/>
-      <c r="L44" s="6"/>
-      <c r="Q44" s="5"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D43" s="6"/>
+      <c r="G43" s="5"/>
+      <c r="M43" s="6"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G44" s="5"/>
+      <c r="M44" s="6"/>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="L45" s="6"/>
-      <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F46" s="5"/>
-      <c r="L46" s="6"/>
-      <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F47" s="5"/>
-      <c r="L47" s="6"/>
-      <c r="Q47" s="5"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G45" s="5"/>
+      <c r="M45" s="6"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G46" s="5"/>
+      <c r="M46" s="6"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G47" s="5"/>
+      <c r="M47" s="6"/>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>217</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="5"/>
+      <c r="H48" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="Q48" s="17"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F49" s="5"/>
-      <c r="G49" s="15" t="s">
+      <c r="M48" s="6"/>
+      <c r="R48" s="17"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G49" s="5"/>
+      <c r="H49" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="Q49" s="17"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F50" s="5"/>
-      <c r="L50" s="6"/>
-      <c r="Q50" s="5"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M49" s="6"/>
+      <c r="R49" s="17"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G50" s="5"/>
+      <c r="M50" s="6"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -10154,9 +10249,10 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="7"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q51" s="3"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>212</v>
       </c>
@@ -10164,8 +10260,8 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -10175,16 +10271,17 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="7"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q52" s="3"/>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -10194,9 +10291,10 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
-      <c r="Q53" s="5"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q53" s="6"/>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -10204,9 +10302,9 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -10215,16 +10313,17 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
-      <c r="Q54" s="20"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="20"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -10234,16 +10333,17 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
-      <c r="Q55" s="20"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q55" s="6"/>
+      <c r="R55" s="20"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -10253,117 +10353,121 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
-      <c r="Q56" s="20"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q56" s="6"/>
+      <c r="R56" s="20"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>149</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="15"/>
-      <c r="L57" s="6"/>
-      <c r="Q57" s="5"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G57" s="5"/>
+      <c r="H57" s="15"/>
+      <c r="M57" s="6"/>
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>150</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="L58" s="6"/>
-      <c r="Q58" s="5"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F59" s="5"/>
-      <c r="L59" s="6"/>
-      <c r="Q59" s="5"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G58" s="5"/>
+      <c r="M58" s="6"/>
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G59" s="5"/>
+      <c r="M59" s="6"/>
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B60" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="L60" s="6"/>
-      <c r="Q60" s="5"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D60" s="6"/>
+      <c r="G60" s="5"/>
+      <c r="M60" s="6"/>
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B61" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="L61" s="6"/>
-      <c r="Q61" s="5"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F62" s="5"/>
-      <c r="L62" s="6"/>
-      <c r="Q62" s="5"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D61" s="6"/>
+      <c r="G61" s="5"/>
+      <c r="M61" s="6"/>
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G62" s="5"/>
+      <c r="M62" s="6"/>
+      <c r="R62" s="5"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="15"/>
-      <c r="L63" s="6"/>
-      <c r="Q63" s="20"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G63" s="5"/>
+      <c r="H63" s="15"/>
+      <c r="M63" s="6"/>
+      <c r="R63" s="20"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>151</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="L64" s="6"/>
-      <c r="Q64" s="5"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F65" s="5"/>
-      <c r="L65" s="6"/>
-      <c r="Q65" s="5"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G64" s="5"/>
+      <c r="M64" s="6"/>
+      <c r="R64" s="5"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G65" s="5"/>
+      <c r="M65" s="6"/>
+      <c r="R65" s="5"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>154</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="5"/>
+      <c r="H66" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="L66" s="6"/>
-      <c r="Q66" s="17"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F67" s="5"/>
-      <c r="L67" s="6"/>
-      <c r="Q67" s="5"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M66" s="6"/>
+      <c r="R66" s="17"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G67" s="5"/>
+      <c r="M67" s="6"/>
+      <c r="R67" s="5"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="F68" s="5"/>
-      <c r="L68" s="6"/>
-      <c r="Q68" s="5"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F69" s="5"/>
-      <c r="L69" s="6"/>
-      <c r="Q69" s="5"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D68" s="6"/>
+      <c r="G68" s="5"/>
+      <c r="M68" s="6"/>
+      <c r="R68" s="5"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G69" s="5"/>
+      <c r="M69" s="6"/>
+      <c r="R69" s="5"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -10373,9 +10477,10 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="7"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q70" s="3"/>
+      <c r="R70" s="7"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>214</v>
       </c>
@@ -10383,8 +10488,8 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -10394,16 +10499,17 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-      <c r="Q71" s="7"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q71" s="3"/>
+      <c r="R71" s="7"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="5"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -10413,9 +10519,10 @@
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="5"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q72" s="6"/>
+      <c r="R72" s="5"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -10423,9 +10530,9 @@
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="18"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -10434,16 +10541,17 @@
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="20"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q73" s="6"/>
+      <c r="R73" s="20"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="5"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -10453,16 +10561,17 @@
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
-      <c r="Q74" s="20"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q74" s="6"/>
+      <c r="R74" s="20"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="5"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -10472,119 +10581,123 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
-      <c r="Q75" s="20"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q75" s="6"/>
+      <c r="R75" s="20"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="15"/>
-      <c r="L76" s="6"/>
-      <c r="Q76" s="5"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G76" s="5"/>
+      <c r="H76" s="15"/>
+      <c r="M76" s="6"/>
+      <c r="R76" s="5"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>150</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="L77" s="6"/>
-      <c r="Q77" s="5"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F78" s="5"/>
-      <c r="L78" s="6"/>
-      <c r="Q78" s="5"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G77" s="5"/>
+      <c r="M77" s="6"/>
+      <c r="R77" s="5"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G78" s="5"/>
+      <c r="M78" s="6"/>
+      <c r="R78" s="5"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F79" s="5"/>
-      <c r="L79" s="6"/>
-      <c r="Q79" s="5"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D79" s="6"/>
+      <c r="G79" s="5"/>
+      <c r="M79" s="6"/>
+      <c r="R79" s="5"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B80" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="L80" s="6"/>
-      <c r="Q80" s="5"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F81" s="5"/>
-      <c r="L81" s="6"/>
-      <c r="Q81" s="5"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D80" s="6"/>
+      <c r="G80" s="5"/>
+      <c r="M80" s="6"/>
+      <c r="R80" s="5"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G81" s="5"/>
+      <c r="M81" s="6"/>
+      <c r="R81" s="5"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="15"/>
-      <c r="L82" s="6"/>
-      <c r="Q82" s="20"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G82" s="5"/>
+      <c r="H82" s="15"/>
+      <c r="M82" s="6"/>
+      <c r="R82" s="20"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="L83" s="6"/>
-      <c r="Q83" s="5"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F84" s="5"/>
-      <c r="L84" s="6"/>
-      <c r="Q84" s="5"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G83" s="5"/>
+      <c r="M83" s="6"/>
+      <c r="R83" s="5"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G84" s="5"/>
+      <c r="M84" s="6"/>
+      <c r="R84" s="5"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>154</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="5"/>
+      <c r="H85" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="L85" s="6"/>
-      <c r="Q85" s="17"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F86" s="5"/>
-      <c r="L86" s="6"/>
-      <c r="Q86" s="5"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M85" s="6"/>
+      <c r="R85" s="17"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G86" s="5"/>
+      <c r="M86" s="6"/>
+      <c r="R86" s="5"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B87" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
       </c>
-      <c r="F87" s="5"/>
-      <c r="L87" s="6"/>
-      <c r="Q87" s="5"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F88" s="5"/>
-      <c r="L88" s="6"/>
-      <c r="Q88" s="5"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D87" s="6"/>
+      <c r="G87" s="5"/>
+      <c r="M87" s="6"/>
+      <c r="R87" s="5"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G88" s="5"/>
+      <c r="M88" s="6"/>
+      <c r="R88" s="5"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="7"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -10594,9 +10707,10 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
-      <c r="Q89" s="7"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q89" s="3"/>
+      <c r="R89" s="7"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>40</v>
       </c>
@@ -10604,8 +10718,8 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="7"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -10615,16 +10729,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-      <c r="Q90" s="7"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="7"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="5"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -10634,9 +10749,10 @@
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
-      <c r="Q91" s="5"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q91" s="6"/>
+      <c r="R91" s="5"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -10644,9 +10760,9 @@
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="18"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -10655,16 +10771,17 @@
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
-      <c r="Q92" s="20"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q92" s="6"/>
+      <c r="R92" s="20"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="5"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -10674,16 +10791,17 @@
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
-      <c r="Q93" s="20"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q93" s="6"/>
+      <c r="R93" s="20"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="5"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -10693,119 +10811,123 @@
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
-      <c r="Q94" s="20"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q94" s="6"/>
+      <c r="R94" s="20"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>149</v>
       </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="15"/>
-      <c r="L95" s="6"/>
-      <c r="Q95" s="5"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G95" s="5"/>
+      <c r="H95" s="15"/>
+      <c r="M95" s="6"/>
+      <c r="R95" s="5"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>150</v>
       </c>
-      <c r="F96" s="5"/>
-      <c r="L96" s="6"/>
-      <c r="Q96" s="5"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F97" s="5"/>
-      <c r="L97" s="6"/>
-      <c r="Q97" s="5"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G96" s="5"/>
+      <c r="M96" s="6"/>
+      <c r="R96" s="5"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G97" s="5"/>
+      <c r="M97" s="6"/>
+      <c r="R97" s="5"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B98" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F98" s="5"/>
-      <c r="L98" s="6"/>
-      <c r="Q98" s="5"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D98" s="6"/>
+      <c r="G98" s="5"/>
+      <c r="M98" s="6"/>
+      <c r="R98" s="5"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B99" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F99" s="5"/>
-      <c r="L99" s="6"/>
-      <c r="Q99" s="5"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F100" s="5"/>
-      <c r="L100" s="6"/>
-      <c r="Q100" s="5"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D99" s="6"/>
+      <c r="G99" s="5"/>
+      <c r="M99" s="6"/>
+      <c r="R99" s="5"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G100" s="5"/>
+      <c r="M100" s="6"/>
+      <c r="R100" s="5"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>152</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="15"/>
-      <c r="L101" s="6"/>
-      <c r="Q101" s="20"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G101" s="5"/>
+      <c r="H101" s="15"/>
+      <c r="M101" s="6"/>
+      <c r="R101" s="20"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>151</v>
       </c>
-      <c r="F102" s="5"/>
-      <c r="L102" s="6"/>
-      <c r="Q102" s="5"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F103" s="5"/>
-      <c r="L103" s="6"/>
-      <c r="Q103" s="5"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G102" s="5"/>
+      <c r="M102" s="6"/>
+      <c r="R102" s="5"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G103" s="5"/>
+      <c r="M103" s="6"/>
+      <c r="R103" s="5"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>154</v>
       </c>
-      <c r="F104" s="5"/>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="5"/>
+      <c r="H104" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="L104" s="6"/>
-      <c r="Q104" s="17"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F105" s="5"/>
-      <c r="L105" s="6"/>
-      <c r="Q105" s="5"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M104" s="6"/>
+      <c r="R104" s="17"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G105" s="5"/>
+      <c r="M105" s="6"/>
+      <c r="R105" s="5"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B106" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C106" s="4">
         <v>100000</v>
       </c>
-      <c r="F106" s="5"/>
-      <c r="L106" s="6"/>
-      <c r="Q106" s="5"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F107" s="5"/>
-      <c r="L107" s="6"/>
-      <c r="Q107" s="5"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D106" s="6"/>
+      <c r="G106" s="5"/>
+      <c r="M106" s="6"/>
+      <c r="R106" s="5"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G107" s="5"/>
+      <c r="M107" s="6"/>
+      <c r="R107" s="5"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="7"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -10815,9 +10937,10 @@
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
-      <c r="Q108" s="7"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q108" s="3"/>
+      <c r="R108" s="7"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A109" s="3" t="s">
         <v>69</v>
       </c>
@@ -10825,8 +10948,8 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="7"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -10836,16 +10959,17 @@
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
-      <c r="Q109" s="7"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q109" s="3"/>
+      <c r="R109" s="7"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="5"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -10855,9 +10979,10 @@
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
-      <c r="Q110" s="5"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q110" s="6"/>
+      <c r="R110" s="5"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -10865,9 +10990,9 @@
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="18"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -10876,16 +11001,17 @@
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
-      <c r="Q111" s="20"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q111" s="6"/>
+      <c r="R111" s="20"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="5"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -10895,16 +11021,17 @@
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
-      <c r="Q112" s="20"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q112" s="6"/>
+      <c r="R112" s="20"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="5"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -10914,171 +11041,176 @@
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
-      <c r="Q113" s="20"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q113" s="6"/>
+      <c r="R113" s="20"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>149</v>
       </c>
-      <c r="F114" s="5"/>
-      <c r="G114" s="15"/>
-      <c r="L114" s="6"/>
-      <c r="Q114" s="5"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G114" s="5"/>
+      <c r="H114" s="15"/>
+      <c r="M114" s="6"/>
+      <c r="R114" s="5"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>150</v>
       </c>
-      <c r="F115" s="5"/>
-      <c r="L115" s="6"/>
-      <c r="Q115" s="5"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F116" s="5"/>
-      <c r="L116" s="6"/>
-      <c r="Q116" s="5"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G115" s="5"/>
+      <c r="M115" s="6"/>
+      <c r="R115" s="5"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G116" s="5"/>
+      <c r="M116" s="6"/>
+      <c r="R116" s="5"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B117" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F117" s="5"/>
-      <c r="L117" s="6"/>
-      <c r="Q117" s="5"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D117" s="6"/>
+      <c r="G117" s="5"/>
+      <c r="M117" s="6"/>
+      <c r="R117" s="5"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B118" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F118" s="5"/>
-      <c r="L118" s="6"/>
-      <c r="Q118" s="5"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F119" s="5"/>
-      <c r="L119" s="6"/>
-      <c r="Q119" s="5"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D118" s="6"/>
+      <c r="G118" s="5"/>
+      <c r="M118" s="6"/>
+      <c r="R118" s="5"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G119" s="5"/>
+      <c r="M119" s="6"/>
+      <c r="R119" s="5"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>152</v>
       </c>
-      <c r="F120" s="5"/>
-      <c r="G120" s="15"/>
-      <c r="L120" s="6"/>
-      <c r="Q120" s="20"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G120" s="5"/>
+      <c r="H120" s="15"/>
+      <c r="M120" s="6"/>
+      <c r="R120" s="20"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>151</v>
       </c>
-      <c r="F121" s="5"/>
-      <c r="L121" s="6"/>
-      <c r="Q121" s="5"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F122" s="5"/>
-      <c r="L122" s="6"/>
-      <c r="Q122" s="5"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G121" s="5"/>
+      <c r="M121" s="6"/>
+      <c r="R121" s="5"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G122" s="5"/>
+      <c r="M122" s="6"/>
+      <c r="R122" s="5"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>154</v>
       </c>
-      <c r="F123" s="5"/>
-      <c r="L123" s="6"/>
-      <c r="Q123" s="5"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F124" s="5"/>
-      <c r="L124" s="6"/>
-      <c r="Q124" s="5"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G123" s="5"/>
+      <c r="M123" s="6"/>
+      <c r="R123" s="5"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G124" s="5"/>
+      <c r="M124" s="6"/>
+      <c r="R124" s="5"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B125" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C125" s="4">
         <v>100</v>
       </c>
-      <c r="F125" s="5"/>
-      <c r="L125" s="6"/>
-      <c r="Q125" s="5"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F126" s="5"/>
-      <c r="L126" s="6"/>
-      <c r="Q126" s="5"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D125" s="6"/>
+      <c r="G125" s="5"/>
+      <c r="M125" s="6"/>
+      <c r="R125" s="5"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G126" s="5"/>
+      <c r="M126" s="6"/>
+      <c r="R126" s="5"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>159</v>
       </c>
-      <c r="F127" s="5"/>
-      <c r="L127" s="6"/>
-      <c r="Q127" s="5"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F128" s="5"/>
-      <c r="L128" s="6"/>
-      <c r="Q128" s="5"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F129" s="5"/>
-      <c r="L129" s="6"/>
-      <c r="Q129" s="5"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G127" s="5"/>
+      <c r="M127" s="6"/>
+      <c r="R127" s="5"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G128" s="5"/>
+      <c r="M128" s="6"/>
+      <c r="R128" s="5"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G129" s="5"/>
+      <c r="M129" s="6"/>
+      <c r="R129" s="5"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>160</v>
       </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="15"/>
-      <c r="L130" s="6"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F131" s="5"/>
-      <c r="L131" s="6"/>
-      <c r="Q131" s="5"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F132" s="5"/>
-      <c r="L132" s="6"/>
-      <c r="Q132" s="5"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G130" s="5"/>
+      <c r="H130" s="15"/>
+      <c r="M130" s="6"/>
+      <c r="R130" s="5"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G131" s="5"/>
+      <c r="M131" s="6"/>
+      <c r="R131" s="5"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G132" s="5"/>
+      <c r="M132" s="6"/>
+      <c r="R132" s="5"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>222</v>
       </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="15" t="s">
+      <c r="G133" s="5"/>
+      <c r="H133" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L133" s="6"/>
-      <c r="Q133" s="17"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F134" s="5"/>
-      <c r="G134" s="15" t="s">
+      <c r="M133" s="6"/>
+      <c r="R133" s="17"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G134" s="5"/>
+      <c r="H134" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="L134" s="6"/>
-      <c r="Q134" s="17"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M134" s="6"/>
+      <c r="R134" s="17"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="7"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -11088,9 +11220,10 @@
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
-      <c r="Q135" s="7"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q135" s="3"/>
+      <c r="R135" s="7"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>215</v>
       </c>
@@ -11098,8 +11231,8 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="7"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -11109,16 +11242,17 @@
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
-      <c r="Q136" s="7"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q136" s="3"/>
+      <c r="R136" s="7"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="5"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
@@ -11128,9 +11262,10 @@
       <c r="N137" s="6"/>
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
-      <c r="Q137" s="5"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q137" s="6"/>
+      <c r="R137" s="5"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -11138,9 +11273,9 @@
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="18"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
@@ -11149,16 +11284,17 @@
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
       <c r="P138" s="6"/>
-      <c r="Q138" s="20"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q138" s="6"/>
+      <c r="R138" s="20"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="5"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -11168,16 +11304,17 @@
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
-      <c r="Q139" s="20"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q139" s="6"/>
+      <c r="R139" s="20"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="5"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -11187,166 +11324,171 @@
       <c r="N140" s="6"/>
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
-      <c r="Q140" s="20"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q140" s="6"/>
+      <c r="R140" s="20"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>149</v>
       </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="15"/>
-      <c r="L141" s="6"/>
-      <c r="Q141" s="5"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G141" s="5"/>
+      <c r="H141" s="15"/>
+      <c r="M141" s="6"/>
+      <c r="R141" s="5"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>150</v>
       </c>
-      <c r="F142" s="5"/>
-      <c r="L142" s="6"/>
-      <c r="Q142" s="5"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F143" s="5"/>
-      <c r="L143" s="6"/>
-      <c r="Q143" s="5"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G142" s="5"/>
+      <c r="M142" s="6"/>
+      <c r="R142" s="5"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G143" s="5"/>
+      <c r="M143" s="6"/>
+      <c r="R143" s="5"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B144" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F144" s="5"/>
-      <c r="L144" s="6"/>
-      <c r="Q144" s="5"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D144" s="6"/>
+      <c r="G144" s="5"/>
+      <c r="M144" s="6"/>
+      <c r="R144" s="5"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B145" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="5"/>
-      <c r="L145" s="6"/>
-      <c r="Q145" s="5"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F146" s="5"/>
-      <c r="L146" s="6"/>
-      <c r="Q146" s="5"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D145" s="6"/>
+      <c r="G145" s="5"/>
+      <c r="M145" s="6"/>
+      <c r="R145" s="5"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G146" s="5"/>
+      <c r="M146" s="6"/>
+      <c r="R146" s="5"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>152</v>
       </c>
-      <c r="F147" s="5"/>
-      <c r="G147" s="15"/>
-      <c r="L147" s="6"/>
-      <c r="Q147" s="20"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G147" s="5"/>
+      <c r="H147" s="15"/>
+      <c r="M147" s="6"/>
+      <c r="R147" s="20"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>151</v>
       </c>
-      <c r="F148" s="5"/>
-      <c r="L148" s="6"/>
-      <c r="Q148" s="5"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F149" s="5"/>
-      <c r="L149" s="6"/>
-      <c r="Q149" s="5"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G148" s="5"/>
+      <c r="M148" s="6"/>
+      <c r="R148" s="5"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G149" s="5"/>
+      <c r="M149" s="6"/>
+      <c r="R149" s="5"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>154</v>
       </c>
-      <c r="F150" s="5"/>
-      <c r="L150" s="6"/>
-      <c r="Q150" s="5"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F151" s="5"/>
-      <c r="L151" s="6"/>
-      <c r="Q151" s="5"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G150" s="5"/>
+      <c r="M150" s="6"/>
+      <c r="R150" s="5"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G151" s="5"/>
+      <c r="M151" s="6"/>
+      <c r="R151" s="5"/>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B152" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C152" s="4">
         <v>100</v>
       </c>
-      <c r="F152" s="5"/>
-      <c r="L152" s="6"/>
-      <c r="Q152" s="5"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F153" s="5"/>
-      <c r="L153" s="6"/>
-      <c r="Q153" s="5"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D152" s="6"/>
+      <c r="G152" s="5"/>
+      <c r="M152" s="6"/>
+      <c r="R152" s="5"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G153" s="5"/>
+      <c r="M153" s="6"/>
+      <c r="R153" s="5"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>159</v>
       </c>
-      <c r="F154" s="5"/>
-      <c r="L154" s="6"/>
-      <c r="Q154" s="5"/>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F155" s="5"/>
-      <c r="L155" s="6"/>
-      <c r="Q155" s="5"/>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F156" s="5"/>
-      <c r="L156" s="6"/>
-      <c r="Q156" s="5"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G154" s="5"/>
+      <c r="M154" s="6"/>
+      <c r="R154" s="5"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G155" s="5"/>
+      <c r="M155" s="6"/>
+      <c r="R155" s="5"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G156" s="5"/>
+      <c r="M156" s="6"/>
+      <c r="R156" s="5"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>160</v>
       </c>
-      <c r="F157" s="5"/>
-      <c r="G157" s="15"/>
-      <c r="L157" s="6"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F158" s="5"/>
-      <c r="L158" s="6"/>
-      <c r="Q158" s="5"/>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G157" s="5"/>
+      <c r="H157" s="15"/>
+      <c r="M157" s="6"/>
+      <c r="R157" s="5"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G158" s="5"/>
+      <c r="M158" s="6"/>
+      <c r="R158" s="5"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>223</v>
       </c>
-      <c r="F159" s="5"/>
-      <c r="G159" s="15" t="s">
+      <c r="G159" s="5"/>
+      <c r="H159" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="L159" s="6"/>
-      <c r="Q159" s="17"/>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F160" s="5"/>
-      <c r="G160" s="15" t="s">
+      <c r="M159" s="6"/>
+      <c r="R159" s="17"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G160" s="5"/>
+      <c r="H160" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="L160" s="6"/>
-      <c r="Q160" s="17"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M160" s="6"/>
+      <c r="R160" s="17"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="7"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -11356,9 +11498,10 @@
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
-      <c r="Q161" s="7"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q161" s="3"/>
+      <c r="R161" s="7"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>216</v>
       </c>
@@ -11366,8 +11509,8 @@
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="7"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -11377,16 +11520,17 @@
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
-      <c r="Q162" s="7"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q162" s="3"/>
+      <c r="R162" s="7"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="5"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
@@ -11396,9 +11540,10 @@
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
-      <c r="Q163" s="5"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q163" s="6"/>
+      <c r="R163" s="5"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -11406,9 +11551,9 @@
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="18"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
@@ -11417,16 +11562,17 @@
       <c r="N164" s="6"/>
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
-      <c r="Q164" s="20"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q164" s="6"/>
+      <c r="R164" s="20"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="5"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
@@ -11436,16 +11582,17 @@
       <c r="N165" s="6"/>
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
-      <c r="Q165" s="20"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q165" s="6"/>
+      <c r="R165" s="20"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="5"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
@@ -11455,145 +11602,149 @@
       <c r="N166" s="6"/>
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
-      <c r="Q166" s="20"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q166" s="6"/>
+      <c r="R166" s="20"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>149</v>
       </c>
-      <c r="F167" s="5"/>
-      <c r="G167" s="15"/>
-      <c r="L167" s="6"/>
-      <c r="Q167" s="5"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G167" s="5"/>
+      <c r="H167" s="15"/>
+      <c r="M167" s="6"/>
+      <c r="R167" s="5"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>150</v>
       </c>
-      <c r="F168" s="5"/>
-      <c r="L168" s="6"/>
-      <c r="Q168" s="5"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F169" s="5"/>
-      <c r="L169" s="6"/>
-      <c r="Q169" s="5"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G168" s="5"/>
+      <c r="M168" s="6"/>
+      <c r="R168" s="5"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G169" s="5"/>
+      <c r="M169" s="6"/>
+      <c r="R169" s="5"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B170" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F170" s="5"/>
-      <c r="L170" s="6"/>
-      <c r="Q170" s="5"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D170" s="6"/>
+      <c r="G170" s="5"/>
+      <c r="M170" s="6"/>
+      <c r="R170" s="5"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B171" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F171" s="5"/>
-      <c r="L171" s="6"/>
-      <c r="Q171" s="5"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F172" s="5"/>
-      <c r="L172" s="6"/>
-      <c r="Q172" s="5"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D171" s="6"/>
+      <c r="G171" s="5"/>
+      <c r="M171" s="6"/>
+      <c r="R171" s="5"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G172" s="5"/>
+      <c r="M172" s="6"/>
+      <c r="R172" s="5"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>152</v>
       </c>
-      <c r="F173" s="5"/>
-      <c r="G173" s="15"/>
-      <c r="L173" s="6"/>
-      <c r="Q173" s="20"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G173" s="5"/>
+      <c r="H173" s="15"/>
+      <c r="M173" s="6"/>
+      <c r="R173" s="20"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>151</v>
       </c>
-      <c r="F174" s="5"/>
-      <c r="L174" s="6"/>
-      <c r="Q174" s="5"/>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F175" s="5"/>
-      <c r="L175" s="6"/>
-      <c r="Q175" s="5"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G174" s="5"/>
+      <c r="M174" s="6"/>
+      <c r="R174" s="5"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G175" s="5"/>
+      <c r="M175" s="6"/>
+      <c r="R175" s="5"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>154</v>
       </c>
-      <c r="F176" s="5"/>
-      <c r="L176" s="6"/>
-      <c r="Q176" s="5"/>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F177" s="5"/>
-      <c r="L177" s="6"/>
-      <c r="Q177" s="5"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G176" s="5"/>
+      <c r="M176" s="6"/>
+      <c r="R176" s="5"/>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G177" s="5"/>
+      <c r="M177" s="6"/>
+      <c r="R177" s="5"/>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B178" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C178" s="4">
         <v>100</v>
       </c>
-      <c r="F178" s="5"/>
-      <c r="L178" s="6"/>
-      <c r="Q178" s="5"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F179" s="5"/>
-      <c r="L179" s="6"/>
-      <c r="Q179" s="5"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D178" s="6"/>
+      <c r="G178" s="5"/>
+      <c r="M178" s="6"/>
+      <c r="R178" s="5"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G179" s="5"/>
+      <c r="M179" s="6"/>
+      <c r="R179" s="5"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>159</v>
       </c>
-      <c r="F180" s="5"/>
-      <c r="L180" s="6"/>
-      <c r="Q180" s="5"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F181" s="5"/>
-      <c r="L181" s="6"/>
-      <c r="Q181" s="5"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="F182" s="5"/>
-      <c r="L182" s="6"/>
-      <c r="Q182" s="5"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="G180" s="5"/>
+      <c r="M180" s="6"/>
+      <c r="R180" s="5"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G181" s="5"/>
+      <c r="M181" s="6"/>
+      <c r="R181" s="5"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G182" s="5"/>
+      <c r="M182" s="6"/>
+      <c r="R182" s="5"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>160</v>
       </c>
-      <c r="F183" s="5"/>
-      <c r="G183" s="15" t="s">
+      <c r="G183" s="5"/>
+      <c r="H183" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="L183" s="6"/>
-      <c r="Q183" s="17"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M183" s="6"/>
+      <c r="R183" s="17"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="7"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
@@ -11603,16 +11754,321 @@
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
-      <c r="Q184" s="7"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="7"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A185" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="7"/>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="5"/>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>128</v>
+      </c>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="20"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="20"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+      <c r="R189" s="20"/>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>149</v>
+      </c>
+      <c r="G190" s="5"/>
+      <c r="H190" s="15"/>
+      <c r="M190" s="6"/>
+      <c r="R190" s="5"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>150</v>
+      </c>
+      <c r="G191" s="5"/>
+      <c r="M191" s="6"/>
+      <c r="R191" s="5"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G192" s="5"/>
+      <c r="M192" s="6"/>
+      <c r="R192" s="5"/>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B193" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="G193" s="5"/>
+      <c r="M193" s="6"/>
+      <c r="R193" s="5"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B194" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="G194" s="5"/>
+      <c r="M194" s="6"/>
+      <c r="R194" s="5"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G195" s="5"/>
+      <c r="M195" s="6"/>
+      <c r="R195" s="5"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>152</v>
+      </c>
+      <c r="G196" s="5"/>
+      <c r="H196" s="15"/>
+      <c r="M196" s="6"/>
+      <c r="R196" s="20"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>151</v>
+      </c>
+      <c r="G197" s="5"/>
+      <c r="M197" s="6"/>
+      <c r="R197" s="5"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G198" s="5"/>
+      <c r="M198" s="6"/>
+      <c r="R198" s="5"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A199" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="G199" s="5"/>
+      <c r="M199" s="6"/>
+      <c r="R199" s="5"/>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>154</v>
+      </c>
+      <c r="G200" s="5"/>
+      <c r="M200" s="6"/>
+      <c r="R200" s="5"/>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G201" s="5"/>
+      <c r="M201" s="6"/>
+      <c r="R201" s="5"/>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B202" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C202" s="4">
+        <v>100</v>
+      </c>
+      <c r="D202" s="6"/>
+      <c r="G202" s="5"/>
+      <c r="M202" s="6"/>
+      <c r="R202" s="5"/>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G203" s="5"/>
+      <c r="M203" s="6"/>
+      <c r="R203" s="5"/>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>159</v>
+      </c>
+      <c r="G204" s="5"/>
+      <c r="M204" s="6"/>
+      <c r="R204" s="5"/>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G205" s="5"/>
+      <c r="M205" s="6"/>
+      <c r="R205" s="5"/>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G206" s="5"/>
+      <c r="M206" s="6"/>
+      <c r="R206" s="5"/>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>160</v>
+      </c>
+      <c r="G207" s="5"/>
+      <c r="H207" s="15"/>
+      <c r="M207" s="6"/>
+      <c r="R207" s="5"/>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G208" s="5"/>
+      <c r="H208" s="15"/>
+      <c r="M208" s="6"/>
+      <c r="R208" s="5"/>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A209" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G209" s="5"/>
+      <c r="H209" s="15"/>
+      <c r="M209" s="6"/>
+      <c r="R209" s="5"/>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A210" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G210" s="5"/>
+      <c r="H210" s="15"/>
+      <c r="M210" s="6"/>
+      <c r="R210" s="5"/>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>222</v>
+      </c>
+      <c r="G211" s="5"/>
+      <c r="H211" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="M211" s="6"/>
+      <c r="R211" s="17"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="G212" s="5"/>
+      <c r="H212" s="15"/>
+      <c r="M212" s="6"/>
+      <c r="R212" s="5"/>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q23:Q24 Q48:Q49 Q133:Q134 Q159:Q160 Q183 Q66 Q85 Q104 Q13:Q14" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R23:R24 R48:R49 R133:R134 R159:R160 R183 R66 R85 R104 R13:R14 R211" xr:uid="{4946CF26-F839-4F07-B7A0-F27360425374}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
